--- a/QA/testcases/LLS/Provider/L_Prov_Patient_App_ViewIncomplete.xlsx
+++ b/QA/testcases/LLS/Provider/L_Prov_Patient_App_ViewIncomplete.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27435" windowHeight="13230"/>
+    <workbookView windowWidth="27465" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346">
   <si>
     <t>Step No</t>
   </si>
@@ -529,6 +529,9 @@
   </si>
   <si>
     <t>LLS_SUB_RELATION</t>
+  </si>
+  <si>
+    <t>Child</t>
   </si>
   <si>
     <t>LLS_OP_PRESCRIPTION_NO</t>
@@ -1074,9 +1077,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1119,27 +1122,17 @@
       <charset val="0"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1152,10 +1145,17 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1167,8 +1167,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1181,21 +1190,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1211,15 +1205,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1233,9 +1228,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1250,14 +1245,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1290,7 +1293,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1302,31 +1377,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1338,13 +1401,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1356,67 +1425,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1434,43 +1443,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1536,11 +1539,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1571,9 +1572,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1593,15 +1596,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1613,6 +1607,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1634,7 +1637,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1652,130 +1655,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2232,8 +2235,8 @@
   <sheetPr/>
   <dimension ref="A1:H175"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -4009,7 +4012,7 @@
         <v>165</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="F86" s="9"/>
       <c r="G86" s="9"/>
@@ -4026,7 +4029,7 @@
         <v>20</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E87" s="11"/>
       <c r="F87" s="11"/>
@@ -4044,7 +4047,7 @@
         <v>20</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E88" s="9"/>
       <c r="F88" s="9"/>
@@ -4062,14 +4065,14 @@
         <v>20</v>
       </c>
       <c r="D89" s="14" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E89" s="11"/>
       <c r="F89" s="11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G89" s="11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H89" s="16"/>
     </row>
@@ -4084,7 +4087,7 @@
         <v>20</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E90" s="9"/>
       <c r="F90" s="9"/>
@@ -4102,7 +4105,7 @@
         <v>20</v>
       </c>
       <c r="D91" s="14" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E91" s="11"/>
       <c r="F91" s="11"/>
@@ -4120,14 +4123,14 @@
         <v>20</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E92" s="9"/>
       <c r="F92" s="9" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H92" s="8"/>
     </row>
@@ -4488,7 +4491,7 @@
         <v>20</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E112" s="11"/>
       <c r="F112" s="11"/>
@@ -4710,16 +4713,16 @@
         <v>20</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E124" s="9" t="s">
         <v>146</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G124" s="9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H124" s="8"/>
     </row>
@@ -4750,10 +4753,10 @@
       <c r="D126" s="9"/>
       <c r="E126" s="9"/>
       <c r="F126" s="9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G126" s="9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H126" s="8"/>
     </row>
@@ -4768,14 +4771,14 @@
         <v>20</v>
       </c>
       <c r="D127" s="11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E127" s="11"/>
       <c r="F127" s="11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G127" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H127" s="16"/>
     </row>
@@ -4790,14 +4793,14 @@
         <v>20</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E128" s="9"/>
       <c r="F128" s="9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G128" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H128" s="8"/>
     </row>
@@ -4812,7 +4815,7 @@
         <v>20</v>
       </c>
       <c r="D129" s="11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E129" s="11"/>
       <c r="F129" s="11"/>
@@ -4830,7 +4833,7 @@
         <v>20</v>
       </c>
       <c r="D130" s="12" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E130" s="9"/>
       <c r="F130" s="9"/>
@@ -4848,16 +4851,16 @@
         <v>20</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E131" s="11" t="s">
         <v>146</v>
       </c>
       <c r="F131" s="11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G131" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H131" s="16"/>
     </row>
@@ -4888,10 +4891,10 @@
       <c r="D133" s="11"/>
       <c r="E133" s="11"/>
       <c r="F133" s="11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G133" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H133" s="16"/>
     </row>
@@ -4906,16 +4909,16 @@
         <v>15</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F134" s="9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G134" s="9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H134" s="8"/>
     </row>
@@ -4930,16 +4933,16 @@
         <v>15</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E135" s="11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F135" s="11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G135" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H135" s="16"/>
     </row>
@@ -5158,14 +5161,14 @@
         <v>20</v>
       </c>
       <c r="D147" s="9" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E147" s="9"/>
       <c r="F147" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G147" s="9" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H147" s="8"/>
     </row>
@@ -5182,10 +5185,10 @@
         <v>2</v>
       </c>
       <c r="F148" s="11" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G148" s="11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H148" s="16"/>
     </row>
@@ -5194,20 +5197,20 @@
         <v>148</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C149" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D149" s="9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E149" s="9"/>
       <c r="F149" s="9" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G149" s="9" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H149" s="8"/>
     </row>
@@ -5238,16 +5241,16 @@
         <v>15</v>
       </c>
       <c r="D151" s="12" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E151" s="9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F151" s="9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G151" s="9" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H151" s="8"/>
     </row>
@@ -5262,16 +5265,16 @@
         <v>20</v>
       </c>
       <c r="D152" s="14" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E152" s="11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F152" s="11" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G152" s="11" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H152" s="16"/>
     </row>
@@ -5280,22 +5283,22 @@
         <v>152</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C153" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D153" s="12" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E153" s="9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F153" s="9" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G153" s="9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H153" s="8"/>
     </row>
@@ -5310,14 +5313,14 @@
         <v>15</v>
       </c>
       <c r="D154" s="14" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E154" s="11"/>
       <c r="F154" s="11" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G154" s="11" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H154" s="16"/>
     </row>
@@ -5348,14 +5351,14 @@
         <v>20</v>
       </c>
       <c r="D156" s="11" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E156" s="11"/>
       <c r="F156" s="11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G156" s="11" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H156" s="16"/>
     </row>
@@ -5448,14 +5451,14 @@
         <v>20</v>
       </c>
       <c r="D161" s="20" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E161" s="18"/>
       <c r="F161" s="18" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G161" s="18" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H161" s="18"/>
     </row>
@@ -5470,14 +5473,14 @@
         <v>15</v>
       </c>
       <c r="D162" s="22" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E162" s="21"/>
       <c r="F162" s="21" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G162" s="21" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H162" s="21"/>
     </row>
@@ -5508,14 +5511,14 @@
         <v>20</v>
       </c>
       <c r="D164" s="22" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E164" s="21"/>
       <c r="F164" s="21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G164" s="21" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H164" s="21"/>
     </row>
@@ -5530,16 +5533,16 @@
         <v>15</v>
       </c>
       <c r="D165" s="20" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E165" s="18" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F165" s="18" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G165" s="18" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H165" s="18"/>
     </row>
@@ -5554,16 +5557,16 @@
         <v>20</v>
       </c>
       <c r="D166" s="22" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E166" s="21" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F166" s="21" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G166" s="21" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H166" s="21"/>
     </row>
@@ -5572,22 +5575,22 @@
         <v>166</v>
       </c>
       <c r="B167" s="18" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C167" s="18" t="s">
         <v>20</v>
       </c>
       <c r="D167" s="20" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E167" s="18" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F167" s="18" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G167" s="18" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H167" s="18"/>
     </row>
@@ -5606,10 +5609,10 @@
       </c>
       <c r="E168" s="21"/>
       <c r="F168" s="21" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G168" s="21" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H168" s="21"/>
     </row>
@@ -5638,7 +5641,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="21" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C170" s="21"/>
       <c r="D170" s="21"/>
@@ -5678,14 +5681,14 @@
         <v>15</v>
       </c>
       <c r="D172" s="22" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E172" s="21"/>
       <c r="F172" s="21" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G172" s="21" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H172" s="21"/>
     </row>
@@ -5716,14 +5719,14 @@
         <v>20</v>
       </c>
       <c r="D174" s="14" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E174" s="11"/>
       <c r="F174" s="11" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G174" s="11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H174" s="11"/>
     </row>
@@ -5800,7 +5803,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5808,20 +5811,20 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -5832,20 +5835,20 @@
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -5853,47 +5856,47 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C11" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="3:3">
@@ -5903,12 +5906,12 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -5918,55 +5921,55 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -5976,152 +5979,152 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="59" spans="3:3">
@@ -6131,209 +6134,209 @@
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="98" spans="3:3">
       <c r="C98" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="99" spans="3:3">
@@ -6343,12 +6346,12 @@
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="102" spans="3:3">

--- a/QA/testcases/LLS/Provider/L_Prov_Patient_App_ViewIncomplete.xlsx
+++ b/QA/testcases/LLS/Provider/L_Prov_Patient_App_ViewIncomplete.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27465" windowHeight="13650"/>
+    <workbookView windowWidth="28680" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -654,166 +654,166 @@
     <t>Popup loaded</t>
   </si>
   <si>
+    <t>AGREE_BUTTON</t>
+  </si>
+  <si>
+    <t>Click Agree button</t>
+  </si>
+  <si>
+    <t>Agree button clicked</t>
+  </si>
+  <si>
+    <t>UDPLOAD_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>_Desc</t>
+  </si>
+  <si>
+    <t>Type Description</t>
+  </si>
+  <si>
+    <t>Description entered</t>
+  </si>
+  <si>
+    <t>UPLOAD_SELECT_CATEGORY</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>Select File</t>
+  </si>
+  <si>
+    <t>File selected</t>
+  </si>
+  <si>
+    <t>TypeUpload</t>
+  </si>
+  <si>
+    <t>UPLOAD_FILE</t>
+  </si>
+  <si>
+    <t>logo</t>
+  </si>
+  <si>
+    <t>Upload a file</t>
+  </si>
+  <si>
+    <t>File uploaded</t>
+  </si>
+  <si>
+    <t>SIGN_AND_SUBMIT_BUTTON</t>
+  </si>
+  <si>
+    <t>Click Submit button</t>
+  </si>
+  <si>
+    <t>Submit button clicked</t>
+  </si>
+  <si>
+    <t>RETURN_HOME</t>
+  </si>
+  <si>
+    <t>Click on return home</t>
+  </si>
+  <si>
+    <t>Return home clicked</t>
+  </si>
+  <si>
+    <t>HOME_ACTIONS</t>
+  </si>
+  <si>
+    <t>Click on Actions</t>
+  </si>
+  <si>
+    <t>Actions clicked</t>
+  </si>
+  <si>
+    <t>ACTION_PROVIDER_UPLOAD_DOCS</t>
+  </si>
+  <si>
+    <t>Click on View Correspondence/Upload Document</t>
+  </si>
+  <si>
+    <t>Clicked View Correspondence/Upload Document</t>
+  </si>
+  <si>
+    <t>UPLOAD_DOCUMENTS_BUTTON</t>
+  </si>
+  <si>
+    <t>Click on Upload button</t>
+  </si>
+  <si>
+    <t>Uplod document button clicked</t>
+  </si>
+  <si>
+    <t>AlertOk</t>
+  </si>
+  <si>
+    <t>BACK_BUTTON</t>
+  </si>
+  <si>
+    <t>Click back button</t>
+  </si>
+  <si>
+    <t>Back button clicked</t>
+  </si>
+  <si>
+    <t>PATIENT_LOGOUT</t>
+  </si>
+  <si>
+    <t>Click on logout</t>
+  </si>
+  <si>
+    <t>Logout successfully</t>
+  </si>
+  <si>
+    <t>Actions</t>
+  </si>
+  <si>
+    <t>GetUrl</t>
+  </si>
+  <si>
+    <t>ByName</t>
+  </si>
+  <si>
+    <t>NavigateToURL</t>
+  </si>
+  <si>
+    <t>ByOrName</t>
+  </si>
+  <si>
+    <t>WaitTime</t>
+  </si>
+  <si>
+    <t>ByLinkText</t>
+  </si>
+  <si>
+    <t>Maximize</t>
+  </si>
+  <si>
+    <t>ByTagName</t>
+  </si>
+  <si>
+    <t>ByClassName</t>
+  </si>
+  <si>
+    <t>ActionClick</t>
+  </si>
+  <si>
+    <t>ByCssSelector</t>
+  </si>
+  <si>
+    <t>JsClick</t>
+  </si>
+  <si>
+    <t>Normal Xpath</t>
+  </si>
+  <si>
+    <t>ByPartialLinkText</t>
+  </si>
+  <si>
     <t>DoubleClick</t>
-  </si>
-  <si>
-    <t>AGREE_BUTTON</t>
-  </si>
-  <si>
-    <t>Click Agree button</t>
-  </si>
-  <si>
-    <t>Agree button clicked</t>
-  </si>
-  <si>
-    <t>UDPLOAD_DESCRIPTION</t>
-  </si>
-  <si>
-    <t>_Desc</t>
-  </si>
-  <si>
-    <t>Type Description</t>
-  </si>
-  <si>
-    <t>Description entered</t>
-  </si>
-  <si>
-    <t>UPLOAD_SELECT_CATEGORY</t>
-  </si>
-  <si>
-    <t>File</t>
-  </si>
-  <si>
-    <t>Select File</t>
-  </si>
-  <si>
-    <t>File selected</t>
-  </si>
-  <si>
-    <t>TypeUpload</t>
-  </si>
-  <si>
-    <t>UPLOAD_FILE</t>
-  </si>
-  <si>
-    <t>logo</t>
-  </si>
-  <si>
-    <t>Upload a file</t>
-  </si>
-  <si>
-    <t>File uploaded</t>
-  </si>
-  <si>
-    <t>SIGN_AND_SUBMIT_BUTTON</t>
-  </si>
-  <si>
-    <t>Click Submit button</t>
-  </si>
-  <si>
-    <t>Submit button clicked</t>
-  </si>
-  <si>
-    <t>RETURN_HOME</t>
-  </si>
-  <si>
-    <t>Click on return home</t>
-  </si>
-  <si>
-    <t>Return home clicked</t>
-  </si>
-  <si>
-    <t>HOME_ACTIONS</t>
-  </si>
-  <si>
-    <t>Click on Actions</t>
-  </si>
-  <si>
-    <t>Actions clicked</t>
-  </si>
-  <si>
-    <t>ACTION_PROVIDER_UPLOAD_DOCS</t>
-  </si>
-  <si>
-    <t>Click on View Correspondence/Upload Document</t>
-  </si>
-  <si>
-    <t>Clicked View Correspondence/Upload Document</t>
-  </si>
-  <si>
-    <t>UPLOAD_DOCUMENTS_BUTTON</t>
-  </si>
-  <si>
-    <t>Click on Upload button</t>
-  </si>
-  <si>
-    <t>Uplod document button clicked</t>
-  </si>
-  <si>
-    <t>AlertOk</t>
-  </si>
-  <si>
-    <t>BACK_BUTTON</t>
-  </si>
-  <si>
-    <t>Click back button</t>
-  </si>
-  <si>
-    <t>Back button clicked</t>
-  </si>
-  <si>
-    <t>PATIENT_LOGOUT</t>
-  </si>
-  <si>
-    <t>Click on logout</t>
-  </si>
-  <si>
-    <t>Logout successfully</t>
-  </si>
-  <si>
-    <t>Actions</t>
-  </si>
-  <si>
-    <t>GetUrl</t>
-  </si>
-  <si>
-    <t>ByName</t>
-  </si>
-  <si>
-    <t>NavigateToURL</t>
-  </si>
-  <si>
-    <t>ByOrName</t>
-  </si>
-  <si>
-    <t>WaitTime</t>
-  </si>
-  <si>
-    <t>ByLinkText</t>
-  </si>
-  <si>
-    <t>Maximize</t>
-  </si>
-  <si>
-    <t>ByTagName</t>
-  </si>
-  <si>
-    <t>ByClassName</t>
-  </si>
-  <si>
-    <t>ActionClick</t>
-  </si>
-  <si>
-    <t>ByCssSelector</t>
-  </si>
-  <si>
-    <t>JsClick</t>
-  </si>
-  <si>
-    <t>Normal Xpath</t>
-  </si>
-  <si>
-    <t>ByPartialLinkText</t>
   </si>
   <si>
     <t>Xpath</t>
@@ -1077,9 +1077,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1122,17 +1122,11 @@
       <charset val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1144,16 +1138,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1167,7 +1191,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1177,21 +1200,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1205,9 +1214,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1222,45 +1260,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1293,13 +1293,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1311,73 +1371,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1395,13 +1395,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1413,7 +1443,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1431,49 +1461,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1541,7 +1541,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1550,7 +1550,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1570,28 +1585,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1620,24 +1624,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1655,130 +1655,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2233,10 +2233,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H175"/>
+  <dimension ref="A1:H172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="E154" sqref="E154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2370,7 +2370,7 @@
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
@@ -2474,7 +2474,7 @@
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
@@ -2512,7 +2512,7 @@
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>39</v>
@@ -3208,7 +3208,7 @@
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
       <c r="E45" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F45" s="11" t="s">
         <v>12</v>
@@ -3239,904 +3239,902 @@
       <c r="H46" s="8"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="10">
-        <v>46</v>
-      </c>
-      <c r="B47" s="11" t="s">
+      <c r="A47" s="7">
+        <v>47</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="10">
+        <v>48</v>
+      </c>
+      <c r="B48" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11">
-        <v>4</v>
-      </c>
-      <c r="F47" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H47" s="11"/>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="7">
-        <v>47</v>
-      </c>
-      <c r="B48" s="9" t="s">
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11">
+        <v>5</v>
+      </c>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="7">
+        <v>49</v>
+      </c>
+      <c r="B49" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C48" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="10">
-        <v>48</v>
-      </c>
-      <c r="B49" s="11" t="s">
+      <c r="C49" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="10">
+        <v>50</v>
+      </c>
+      <c r="B50" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11">
-        <v>4</v>
-      </c>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="7">
-        <v>49</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11">
+        <v>5</v>
+      </c>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="10">
-        <v>50</v>
-      </c>
-      <c r="B51" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="H51" s="9"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="7">
+        <v>52</v>
+      </c>
+      <c r="B52" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11">
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11">
         <v>5</v>
       </c>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="10">
-        <v>51</v>
-      </c>
-      <c r="B52" s="9" t="s">
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="10">
+        <v>53</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="H53" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="7">
+        <v>54</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11">
+        <v>5</v>
+      </c>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="10">
+        <v>55</v>
+      </c>
+      <c r="B55" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C55" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D52" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="G52" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="H52" s="9"/>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="7">
-        <v>52</v>
-      </c>
-      <c r="B53" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11">
-        <v>3</v>
-      </c>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="10">
-        <v>53</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="G54" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="H54" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="7">
-        <v>54</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11">
-        <v>4</v>
-      </c>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
+      <c r="D55" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H55" s="16"/>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="10">
-        <v>55</v>
-      </c>
-      <c r="B56" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9">
+        <v>5</v>
+      </c>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="8"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="7">
+        <v>57</v>
+      </c>
+      <c r="B57" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C57" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D56" s="11" t="s">
+      <c r="D57" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11" t="s">
+      <c r="E57" s="11"/>
+      <c r="F57" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="G56" s="11" t="s">
+      <c r="G57" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="H56" s="16"/>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="10">
-        <v>56</v>
-      </c>
-      <c r="B57" s="9" t="s">
+      <c r="H57" s="16"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="10">
+        <v>58</v>
+      </c>
+      <c r="B58" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9">
-        <v>4</v>
-      </c>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="8"/>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" s="7">
-        <v>57</v>
-      </c>
-      <c r="B58" s="11" t="s">
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9">
+        <v>5</v>
+      </c>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="8"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="7">
+        <v>59</v>
+      </c>
+      <c r="B59" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C59" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D58" s="11" t="s">
+      <c r="D59" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11" t="s">
+      <c r="E59" s="11"/>
+      <c r="F59" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="G58" s="11" t="s">
+      <c r="G59" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="H58" s="16"/>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="10">
-        <v>58</v>
-      </c>
-      <c r="B59" s="9" t="s">
+      <c r="H59" s="16"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="10">
+        <v>60</v>
+      </c>
+      <c r="B60" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9">
-        <v>4</v>
-      </c>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="8"/>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" s="7">
-        <v>59</v>
-      </c>
-      <c r="B60" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D60" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="G60" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H60" s="16"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9">
+        <v>5</v>
+      </c>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="8"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="10">
-        <v>60</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9">
-        <v>4</v>
-      </c>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="8"/>
+        <v>61</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H61" s="16"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="10">
-        <v>61</v>
-      </c>
-      <c r="B62" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C62" s="11" t="s">
+      <c r="A62" s="7">
+        <v>62</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H62" s="8"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="10">
+        <v>63</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H63" s="16"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="7">
+        <v>64</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C64" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D62" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="H62" s="16"/>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="7">
-        <v>62</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C63" s="9" t="s">
+      <c r="D64" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="H64" s="8"/>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="10">
+        <v>65</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C65" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D63" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E63" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="F63" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="G63" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H63" s="8"/>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" s="10">
-        <v>63</v>
-      </c>
-      <c r="B64" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D64" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="E64" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="F64" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="G64" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H64" s="16"/>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65" s="7">
-        <v>64</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="F65" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="G65" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="H65" s="8"/>
+      <c r="D65" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="G65" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="H65" s="16"/>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="10">
-        <v>65</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="C66" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="8"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="7">
+        <v>67</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11">
+        <v>5</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H67" s="11"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="10">
+        <v>68</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C68" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D66" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="G66" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="H66" s="16"/>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" s="10">
-        <v>66</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C67" s="9" t="s">
+      <c r="D68" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="7">
+        <v>69</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11">
+        <v>5</v>
+      </c>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="10">
+        <v>70</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C70" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D67" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="E67" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="8"/>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="A68" s="7">
-        <v>67</v>
-      </c>
-      <c r="B68" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11">
-        <v>4</v>
-      </c>
-      <c r="F68" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G68" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H68" s="11"/>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="A69" s="10">
-        <v>68</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="9"/>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70" s="7">
-        <v>69</v>
-      </c>
-      <c r="B70" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11">
-        <v>4</v>
-      </c>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11"/>
-      <c r="H70" s="11"/>
+      <c r="D70" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="10">
-        <v>70</v>
-      </c>
-      <c r="B71" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11">
+        <v>5</v>
+      </c>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="7">
+        <v>72</v>
+      </c>
+      <c r="B72" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C71" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D71" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9"/>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="A72" s="10">
-        <v>71</v>
-      </c>
-      <c r="B72" s="11" t="s">
+      <c r="C72" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G72" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="H72" s="9"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="10">
+        <v>73</v>
+      </c>
+      <c r="B73" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="11">
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11">
         <v>5</v>
       </c>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11"/>
-      <c r="H72" s="11"/>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="A73" s="7">
-        <v>72</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="G73" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="H73" s="9"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="10">
-        <v>73</v>
-      </c>
-      <c r="B74" s="11" t="s">
+      <c r="A74" s="7">
+        <v>74</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G74" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="H74" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="10">
+        <v>75</v>
+      </c>
+      <c r="B75" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C74" s="11"/>
-      <c r="D74" s="11"/>
-      <c r="E74" s="11">
-        <v>3</v>
-      </c>
-      <c r="F74" s="11"/>
-      <c r="G74" s="11"/>
-      <c r="H74" s="11"/>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="A75" s="7">
-        <v>74</v>
-      </c>
-      <c r="B75" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="G75" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="H75" s="9">
-        <v>6</v>
-      </c>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11">
+        <v>5</v>
+      </c>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="10">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B76" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G76" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H76" s="16"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="7">
+        <v>77</v>
+      </c>
+      <c r="B77" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C76" s="11"/>
-      <c r="D76" s="11"/>
-      <c r="E76" s="11">
-        <v>4</v>
-      </c>
-      <c r="F76" s="11"/>
-      <c r="G76" s="11"/>
-      <c r="H76" s="11"/>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="A77" s="10">
-        <v>76</v>
-      </c>
-      <c r="B77" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C77" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D77" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="E77" s="11"/>
-      <c r="F77" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="G77" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H77" s="16"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9">
+        <v>5</v>
+      </c>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="8"/>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="7">
-        <v>77</v>
-      </c>
-      <c r="B78" s="9" t="s">
+      <c r="A78" s="10">
+        <v>78</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D78" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="F78" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="G78" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="H78" s="16"/>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="7">
+        <v>79</v>
+      </c>
+      <c r="B79" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9">
-        <v>4</v>
-      </c>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="8"/>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="A79" s="10">
-        <v>78</v>
-      </c>
-      <c r="B79" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C79" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D79" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="E79" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="F79" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="G79" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="H79" s="16"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="9">
+        <v>5</v>
+      </c>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="8"/>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="7">
-        <v>79</v>
-      </c>
-      <c r="B80" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C80" s="9"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="9">
-        <v>4</v>
-      </c>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
-      <c r="H80" s="8"/>
+      <c r="A80" s="10">
+        <v>80</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C80" s="11"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="G80" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="H80" s="16"/>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="10">
-        <v>80</v>
-      </c>
-      <c r="B81" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="C81" s="11"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="11"/>
-      <c r="F81" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D81" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="F81" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="G81" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="H81" s="16"/>
+      <c r="G81" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="H81" s="8"/>
     </row>
     <row r="82" spans="1:8">
-      <c r="A82" s="10">
-        <v>81</v>
-      </c>
-      <c r="B82" s="9" t="s">
+      <c r="A82" s="7">
+        <v>82</v>
+      </c>
+      <c r="B82" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C82" s="9" t="s">
+      <c r="C82" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D82" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="E82" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="F82" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="G82" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="H82" s="8"/>
+      <c r="D82" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="E82" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="F82" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="G82" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="H82" s="16"/>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="7">
-        <v>82</v>
-      </c>
-      <c r="B83" s="11" t="s">
+      <c r="A83" s="10">
+        <v>83</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G83" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="H83" s="8"/>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="7">
+        <v>84</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G84" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="H84" s="16"/>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="10">
+        <v>85</v>
+      </c>
+      <c r="B85" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C83" s="11" t="s">
+      <c r="C85" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D83" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="E83" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="F83" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="G83" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="H83" s="16"/>
-    </row>
-    <row r="84" spans="1:8">
-      <c r="A84" s="10">
-        <v>83</v>
-      </c>
-      <c r="B84" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D84" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="G84" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="H84" s="8"/>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="A85" s="7">
-        <v>84</v>
-      </c>
-      <c r="B85" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C85" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D85" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="E85" s="11"/>
-      <c r="F85" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="G85" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="H85" s="16"/>
+      <c r="D85" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="8"/>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="10">
-        <v>85</v>
-      </c>
-      <c r="B86" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C86" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C86" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D86" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="E86" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="F86" s="9"/>
-      <c r="G86" s="9"/>
-      <c r="H86" s="8"/>
+      <c r="D86" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="16"/>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="10">
-        <v>86</v>
-      </c>
-      <c r="B87" s="11" t="s">
+      <c r="A87" s="7">
+        <v>87</v>
+      </c>
+      <c r="B87" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C87" s="11" t="s">
+      <c r="C87" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D87" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="E87" s="11"/>
-      <c r="F87" s="11"/>
-      <c r="G87" s="11"/>
-      <c r="H87" s="16"/>
+      <c r="D87" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="9"/>
+      <c r="H87" s="8"/>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="7">
-        <v>87</v>
-      </c>
-      <c r="B88" s="9" t="s">
+      <c r="A88" s="10">
+        <v>88</v>
+      </c>
+      <c r="B88" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C88" s="9" t="s">
+      <c r="C88" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D88" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="E88" s="9"/>
-      <c r="F88" s="9"/>
-      <c r="G88" s="9"/>
-      <c r="H88" s="8"/>
+      <c r="D88" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="G88" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="H88" s="16"/>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="10">
-        <v>88</v>
-      </c>
-      <c r="B89" s="11" t="s">
+      <c r="A89" s="7">
+        <v>89</v>
+      </c>
+      <c r="B89" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C89" s="11" t="s">
+      <c r="C89" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D89" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="E89" s="11"/>
-      <c r="F89" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="G89" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="H89" s="16"/>
+      <c r="D89" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="8"/>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="7">
-        <v>89</v>
-      </c>
-      <c r="B90" s="9" t="s">
+      <c r="A90" s="10">
+        <v>90</v>
+      </c>
+      <c r="B90" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C90" s="9" t="s">
+      <c r="C90" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D90" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="E90" s="9"/>
-      <c r="F90" s="9"/>
-      <c r="G90" s="9"/>
-      <c r="H90" s="8"/>
+      <c r="D90" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
+      <c r="H90" s="16"/>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="10">
-        <v>90</v>
-      </c>
-      <c r="B91" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C91" s="11" t="s">
+      <c r="C91" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D91" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="E91" s="11"/>
-      <c r="F91" s="11"/>
-      <c r="G91" s="11"/>
-      <c r="H91" s="16"/>
+      <c r="D91" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="G91" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="H91" s="8"/>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="10">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D92" s="12" t="s">
-        <v>174</v>
+        <v>15</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>120</v>
       </c>
       <c r="E92" s="9"/>
-      <c r="F92" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="G92" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="H92" s="8"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="9"/>
+      <c r="H92" s="9"/>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="7">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93" s="11" t="s">
         <v>11</v>
@@ -4144,28 +4142,24 @@
       <c r="C93" s="11"/>
       <c r="D93" s="11"/>
       <c r="E93" s="11">
-        <v>4</v>
-      </c>
-      <c r="F93" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G93" s="11" t="s">
-        <v>13</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F93" s="11"/>
+      <c r="G93" s="11"/>
       <c r="H93" s="11"/>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="10">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E94" s="9"/>
       <c r="F94" s="9"/>
@@ -4173,8 +4167,8 @@
       <c r="H94" s="9"/>
     </row>
     <row r="95" spans="1:8">
-      <c r="A95" s="7">
-        <v>94</v>
+      <c r="A95" s="10">
+        <v>96</v>
       </c>
       <c r="B95" s="11" t="s">
         <v>11</v>
@@ -4182,33 +4176,37 @@
       <c r="C95" s="11"/>
       <c r="D95" s="11"/>
       <c r="E95" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F95" s="11"/>
       <c r="G95" s="11"/>
       <c r="H95" s="11"/>
     </row>
     <row r="96" spans="1:8">
-      <c r="A96" s="10">
-        <v>95</v>
+      <c r="A96" s="7">
+        <v>97</v>
       </c>
       <c r="B96" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E96" s="9"/>
-      <c r="F96" s="9"/>
-      <c r="G96" s="9"/>
+      <c r="F96" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G96" s="9" t="s">
+        <v>124</v>
+      </c>
       <c r="H96" s="9"/>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="10">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97" s="11" t="s">
         <v>11</v>
@@ -4216,7 +4214,7 @@
       <c r="C97" s="11"/>
       <c r="D97" s="11"/>
       <c r="E97" s="11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F97" s="11"/>
       <c r="G97" s="11"/>
@@ -4224,29 +4222,27 @@
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="7">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C98" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D98" s="9" t="s">
-        <v>122</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
       <c r="E98" s="9"/>
       <c r="F98" s="9" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="H98" s="9"/>
+        <v>127</v>
+      </c>
+      <c r="H98" s="9">
+        <v>6</v>
+      </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="10">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99" s="11" t="s">
         <v>11</v>
@@ -4254,35 +4250,37 @@
       <c r="C99" s="11"/>
       <c r="D99" s="11"/>
       <c r="E99" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F99" s="11"/>
       <c r="G99" s="11"/>
       <c r="H99" s="11"/>
     </row>
     <row r="100" spans="1:8">
-      <c r="A100" s="7">
-        <v>99</v>
-      </c>
-      <c r="B100" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C100" s="9"/>
-      <c r="D100" s="9"/>
-      <c r="E100" s="9"/>
-      <c r="F100" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="G100" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="H100" s="9">
-        <v>6</v>
-      </c>
+      <c r="A100" s="10">
+        <v>101</v>
+      </c>
+      <c r="B100" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D100" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E100" s="11"/>
+      <c r="F100" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G100" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H100" s="16"/>
     </row>
     <row r="101" spans="1:8">
-      <c r="A101" s="10">
-        <v>100</v>
+      <c r="A101" s="7">
+        <v>102</v>
       </c>
       <c r="B101" s="11" t="s">
         <v>11</v>
@@ -4290,37 +4288,37 @@
       <c r="C101" s="11"/>
       <c r="D101" s="11"/>
       <c r="E101" s="11">
-        <v>4</v>
-      </c>
-      <c r="F101" s="11"/>
-      <c r="G101" s="11"/>
+        <v>5</v>
+      </c>
+      <c r="F101" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G101" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="H101" s="11"/>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="10">
-        <v>101</v>
-      </c>
-      <c r="B102" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B102" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C102" s="11" t="s">
+      <c r="C102" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D102" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="E102" s="11"/>
-      <c r="F102" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="G102" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H102" s="16"/>
+      <c r="D102" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="9"/>
+      <c r="H102" s="9"/>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="7">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103" s="11" t="s">
         <v>11</v>
@@ -4328,28 +4326,24 @@
       <c r="C103" s="11"/>
       <c r="D103" s="11"/>
       <c r="E103" s="11">
-        <v>4</v>
-      </c>
-      <c r="F103" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G103" s="11" t="s">
-        <v>13</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F103" s="11"/>
+      <c r="G103" s="11"/>
       <c r="H103" s="11"/>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="10">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E104" s="9"/>
       <c r="F104" s="9"/>
@@ -4357,8 +4351,8 @@
       <c r="H104" s="9"/>
     </row>
     <row r="105" spans="1:8">
-      <c r="A105" s="7">
-        <v>104</v>
+      <c r="A105" s="10">
+        <v>106</v>
       </c>
       <c r="B105" s="11" t="s">
         <v>11</v>
@@ -4366,33 +4360,37 @@
       <c r="C105" s="11"/>
       <c r="D105" s="11"/>
       <c r="E105" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F105" s="11"/>
       <c r="G105" s="11"/>
       <c r="H105" s="11"/>
     </row>
     <row r="106" spans="1:8">
-      <c r="A106" s="10">
-        <v>105</v>
+      <c r="A106" s="7">
+        <v>107</v>
       </c>
       <c r="B106" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E106" s="9"/>
-      <c r="F106" s="9"/>
-      <c r="G106" s="9"/>
+      <c r="F106" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G106" s="9" t="s">
+        <v>124</v>
+      </c>
       <c r="H106" s="9"/>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="10">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B107" s="11" t="s">
         <v>11</v>
@@ -4400,7 +4398,7 @@
       <c r="C107" s="11"/>
       <c r="D107" s="11"/>
       <c r="E107" s="11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F107" s="11"/>
       <c r="G107" s="11"/>
@@ -4408,29 +4406,27 @@
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="7">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C108" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D108" s="9" t="s">
-        <v>122</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="C108" s="9"/>
+      <c r="D108" s="9"/>
       <c r="E108" s="9"/>
       <c r="F108" s="9" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="H108" s="9"/>
+        <v>127</v>
+      </c>
+      <c r="H108" s="9">
+        <v>6</v>
+      </c>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="10">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B109" s="11" t="s">
         <v>11</v>
@@ -4438,35 +4434,33 @@
       <c r="C109" s="11"/>
       <c r="D109" s="11"/>
       <c r="E109" s="11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F109" s="11"/>
       <c r="G109" s="11"/>
       <c r="H109" s="11"/>
     </row>
     <row r="110" spans="1:8">
-      <c r="A110" s="7">
-        <v>109</v>
-      </c>
-      <c r="B110" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C110" s="9"/>
-      <c r="D110" s="9"/>
-      <c r="E110" s="9"/>
-      <c r="F110" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="G110" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="H110" s="9">
-        <v>6</v>
-      </c>
+      <c r="A110" s="10">
+        <v>111</v>
+      </c>
+      <c r="B110" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D110" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="E110" s="11"/>
+      <c r="F110" s="11"/>
+      <c r="G110" s="11"/>
+      <c r="H110" s="16"/>
     </row>
     <row r="111" spans="1:8">
-      <c r="A111" s="10">
-        <v>110</v>
+      <c r="A111" s="7">
+        <v>112</v>
       </c>
       <c r="B111" s="11" t="s">
         <v>11</v>
@@ -4474,33 +4468,37 @@
       <c r="C111" s="11"/>
       <c r="D111" s="11"/>
       <c r="E111" s="11">
-        <v>4</v>
-      </c>
-      <c r="F111" s="11"/>
-      <c r="G111" s="11"/>
+        <v>5</v>
+      </c>
+      <c r="F111" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G111" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="H111" s="11"/>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="10">
-        <v>111</v>
-      </c>
-      <c r="B112" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B112" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C112" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D112" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="E112" s="11"/>
-      <c r="F112" s="11"/>
-      <c r="G112" s="11"/>
-      <c r="H112" s="16"/>
+      <c r="C112" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D112" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E112" s="9"/>
+      <c r="F112" s="9"/>
+      <c r="G112" s="9"/>
+      <c r="H112" s="9"/>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="7">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B113" s="11" t="s">
         <v>11</v>
@@ -4508,28 +4506,24 @@
       <c r="C113" s="11"/>
       <c r="D113" s="11"/>
       <c r="E113" s="11">
-        <v>4</v>
-      </c>
-      <c r="F113" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G113" s="11" t="s">
-        <v>13</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F113" s="11"/>
+      <c r="G113" s="11"/>
       <c r="H113" s="11"/>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="10">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B114" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E114" s="9"/>
       <c r="F114" s="9"/>
@@ -4537,8 +4531,8 @@
       <c r="H114" s="9"/>
     </row>
     <row r="115" spans="1:8">
-      <c r="A115" s="7">
-        <v>114</v>
+      <c r="A115" s="10">
+        <v>116</v>
       </c>
       <c r="B115" s="11" t="s">
         <v>11</v>
@@ -4546,33 +4540,37 @@
       <c r="C115" s="11"/>
       <c r="D115" s="11"/>
       <c r="E115" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F115" s="11"/>
       <c r="G115" s="11"/>
       <c r="H115" s="11"/>
     </row>
     <row r="116" spans="1:8">
-      <c r="A116" s="10">
-        <v>115</v>
+      <c r="A116" s="7">
+        <v>117</v>
       </c>
       <c r="B116" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E116" s="9"/>
-      <c r="F116" s="9"/>
-      <c r="G116" s="9"/>
+      <c r="F116" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G116" s="9" t="s">
+        <v>124</v>
+      </c>
       <c r="H116" s="9"/>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="10">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B117" s="11" t="s">
         <v>11</v>
@@ -4580,7 +4578,7 @@
       <c r="C117" s="11"/>
       <c r="D117" s="11"/>
       <c r="E117" s="11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F117" s="11"/>
       <c r="G117" s="11"/>
@@ -4588,29 +4586,27 @@
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="7">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C118" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D118" s="9" t="s">
-        <v>122</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="C118" s="9"/>
+      <c r="D118" s="9"/>
       <c r="E118" s="9"/>
       <c r="F118" s="9" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G118" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="H118" s="9"/>
+        <v>127</v>
+      </c>
+      <c r="H118" s="9">
+        <v>6</v>
+      </c>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="10">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B119" s="11" t="s">
         <v>11</v>
@@ -4618,35 +4614,37 @@
       <c r="C119" s="11"/>
       <c r="D119" s="11"/>
       <c r="E119" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F119" s="11"/>
       <c r="G119" s="11"/>
       <c r="H119" s="11"/>
     </row>
     <row r="120" spans="1:8">
-      <c r="A120" s="7">
-        <v>119</v>
+      <c r="A120" s="10">
+        <v>121</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C120" s="9"/>
-      <c r="D120" s="9"/>
+        <v>19</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D120" s="9" t="s">
+        <v>88</v>
+      </c>
       <c r="E120" s="9"/>
       <c r="F120" s="9" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="G120" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="H120" s="9">
-        <v>6</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="H120" s="8"/>
     </row>
     <row r="121" spans="1:8">
-      <c r="A121" s="10">
-        <v>120</v>
+      <c r="A121" s="7">
+        <v>122</v>
       </c>
       <c r="B121" s="11" t="s">
         <v>11</v>
@@ -4656,35 +4654,41 @@
       <c r="E121" s="11">
         <v>4</v>
       </c>
-      <c r="F121" s="11"/>
-      <c r="G121" s="11"/>
-      <c r="H121" s="11"/>
+      <c r="F121" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G121" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H121" s="16"/>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="10">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E122" s="9"/>
+        <v>178</v>
+      </c>
+      <c r="E122" s="9" t="s">
+        <v>146</v>
+      </c>
       <c r="F122" s="9" t="s">
-        <v>89</v>
+        <v>179</v>
       </c>
       <c r="G122" s="9" t="s">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="H122" s="8"/>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="7">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B123" s="11" t="s">
         <v>11</v>
@@ -4692,77 +4696,77 @@
       <c r="C123" s="11"/>
       <c r="D123" s="11"/>
       <c r="E123" s="11">
-        <v>4</v>
-      </c>
-      <c r="F123" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G123" s="11" t="s">
-        <v>13</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F123" s="11"/>
+      <c r="G123" s="11"/>
       <c r="H123" s="16"/>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="10">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C124" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C124" s="9"/>
+      <c r="D124" s="9"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="G124" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="H124" s="8"/>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="10">
+        <v>126</v>
+      </c>
+      <c r="B125" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C125" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D124" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="E124" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="F124" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="G124" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="H124" s="8"/>
-    </row>
-    <row r="125" spans="1:8">
-      <c r="A125" s="7">
-        <v>124</v>
-      </c>
-      <c r="B125" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C125" s="11"/>
-      <c r="D125" s="11"/>
-      <c r="E125" s="11">
-        <v>5</v>
-      </c>
-      <c r="F125" s="11"/>
-      <c r="G125" s="11"/>
+      <c r="D125" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="E125" s="11"/>
+      <c r="F125" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="G125" s="11" t="s">
+        <v>185</v>
+      </c>
       <c r="H125" s="16"/>
     </row>
     <row r="126" spans="1:8">
-      <c r="A126" s="10">
-        <v>125</v>
+      <c r="A126" s="7">
+        <v>127</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="C126" s="9"/>
-      <c r="D126" s="9"/>
+        <v>19</v>
+      </c>
+      <c r="C126" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D126" s="9" t="s">
+        <v>186</v>
+      </c>
       <c r="E126" s="9"/>
       <c r="F126" s="9" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="G126" s="9" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="H126" s="8"/>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="10">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B127" s="11" t="s">
         <v>19</v>
@@ -4771,20 +4775,16 @@
         <v>20</v>
       </c>
       <c r="D127" s="11" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E127" s="11"/>
-      <c r="F127" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="G127" s="11" t="s">
-        <v>185</v>
-      </c>
+      <c r="F127" s="11"/>
+      <c r="G127" s="11"/>
       <c r="H127" s="16"/>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="7">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B128" s="9" t="s">
         <v>19</v>
@@ -4792,579 +4792,581 @@
       <c r="C128" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D128" s="9" t="s">
-        <v>186</v>
+      <c r="D128" s="12" t="s">
+        <v>188</v>
       </c>
       <c r="E128" s="9"/>
-      <c r="F128" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="G128" s="9" t="s">
-        <v>185</v>
-      </c>
+      <c r="F128" s="9"/>
+      <c r="G128" s="9"/>
       <c r="H128" s="8"/>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="10">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="C129" s="11" t="s">
         <v>20</v>
       </c>
       <c r="D129" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="E129" s="11"/>
-      <c r="F129" s="11"/>
-      <c r="G129" s="11"/>
+        <v>189</v>
+      </c>
+      <c r="E129" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="F129" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="G129" s="11" t="s">
+        <v>191</v>
+      </c>
       <c r="H129" s="16"/>
     </row>
     <row r="130" spans="1:8">
-      <c r="A130" s="7">
-        <v>129</v>
+      <c r="A130" s="10">
+        <v>131</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C130" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D130" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="E130" s="9"/>
+        <v>11</v>
+      </c>
+      <c r="C130" s="9"/>
+      <c r="D130" s="9"/>
+      <c r="E130" s="9">
+        <v>5</v>
+      </c>
       <c r="F130" s="9"/>
       <c r="G130" s="9"/>
       <c r="H130" s="8"/>
     </row>
     <row r="131" spans="1:8">
-      <c r="A131" s="10">
-        <v>130</v>
+      <c r="A131" s="7">
+        <v>132</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C131" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D131" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="E131" s="11" t="s">
-        <v>146</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="C131" s="11"/>
+      <c r="D131" s="11"/>
+      <c r="E131" s="11"/>
       <c r="F131" s="11" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G131" s="11" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H131" s="16"/>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="10">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C132" s="9"/>
-      <c r="D132" s="9"/>
-      <c r="E132" s="9">
-        <v>3</v>
-      </c>
-      <c r="F132" s="9"/>
-      <c r="G132" s="9"/>
+        <v>46</v>
+      </c>
+      <c r="C132" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D132" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E132" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="F132" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="G132" s="9" t="s">
+        <v>197</v>
+      </c>
       <c r="H132" s="8"/>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="7">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="C133" s="11"/>
-      <c r="D133" s="11"/>
-      <c r="E133" s="11"/>
+        <v>46</v>
+      </c>
+      <c r="C133" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D133" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="E133" s="11" t="s">
+        <v>199</v>
+      </c>
       <c r="F133" s="11" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="G133" s="11" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="H133" s="16"/>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" customFormat="1" spans="1:8">
       <c r="A134" s="10">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="C134" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="E134" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="F134" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="G134" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="H134" s="8"/>
-    </row>
-    <row r="135" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="E134" s="9"/>
+      <c r="F134" s="9"/>
+      <c r="G134" s="9"/>
+      <c r="H134" s="9"/>
+    </row>
+    <row r="135" customFormat="1" spans="1:8">
       <c r="A135" s="7">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B135" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C135" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D135" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="E135" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="F135" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="G135" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="H135" s="16"/>
+        <v>11</v>
+      </c>
+      <c r="C135" s="11"/>
+      <c r="D135" s="11"/>
+      <c r="E135" s="11">
+        <v>4</v>
+      </c>
+      <c r="F135" s="11"/>
+      <c r="G135" s="11"/>
+      <c r="H135" s="11"/>
     </row>
     <row r="136" customFormat="1" spans="1:8">
       <c r="A136" s="10">
-        <v>135</v>
-      </c>
-      <c r="B136" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B136" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C136" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D136" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E136" s="9"/>
+      <c r="F136" s="9"/>
+      <c r="G136" s="9"/>
+      <c r="H136" s="9"/>
+    </row>
+    <row r="137" customFormat="1" spans="1:8">
+      <c r="A137" s="7">
+        <v>139</v>
+      </c>
+      <c r="B137" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C136" s="11"/>
-      <c r="D136" s="11"/>
-      <c r="E136" s="11">
-        <v>4</v>
-      </c>
-      <c r="F136" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G136" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H136" s="11"/>
-    </row>
-    <row r="137" customFormat="1" spans="1:8">
-      <c r="A137" s="10">
-        <v>136</v>
-      </c>
-      <c r="B137" s="9" t="s">
+      <c r="C137" s="11"/>
+      <c r="D137" s="11"/>
+      <c r="E137" s="11">
+        <v>5</v>
+      </c>
+      <c r="F137" s="11"/>
+      <c r="G137" s="11"/>
+      <c r="H137" s="11"/>
+    </row>
+    <row r="138" customFormat="1" spans="1:8">
+      <c r="A138" s="10">
+        <v>140</v>
+      </c>
+      <c r="B138" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C137" s="9" t="s">
+      <c r="C138" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D137" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E137" s="9"/>
-      <c r="F137" s="9"/>
-      <c r="G137" s="9"/>
-      <c r="H137" s="9"/>
-    </row>
-    <row r="138" customFormat="1" spans="1:8">
-      <c r="A138" s="7">
-        <v>137</v>
-      </c>
-      <c r="B138" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C138" s="11"/>
-      <c r="D138" s="11"/>
-      <c r="E138" s="11">
-        <v>4</v>
-      </c>
-      <c r="F138" s="11"/>
-      <c r="G138" s="11"/>
-      <c r="H138" s="11"/>
+      <c r="D138" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E138" s="9"/>
+      <c r="F138" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G138" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="H138" s="9"/>
     </row>
     <row r="139" customFormat="1" spans="1:8">
       <c r="A139" s="10">
-        <v>138</v>
-      </c>
-      <c r="B139" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C139" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D139" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E139" s="9"/>
-      <c r="F139" s="9"/>
-      <c r="G139" s="9"/>
-      <c r="H139" s="9"/>
+        <v>141</v>
+      </c>
+      <c r="B139" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C139" s="11"/>
+      <c r="D139" s="11"/>
+      <c r="E139" s="11">
+        <v>3</v>
+      </c>
+      <c r="F139" s="11"/>
+      <c r="G139" s="11"/>
+      <c r="H139" s="11"/>
     </row>
     <row r="140" customFormat="1" spans="1:8">
       <c r="A140" s="7">
-        <v>139</v>
-      </c>
-      <c r="B140" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C140" s="11"/>
-      <c r="D140" s="11"/>
-      <c r="E140" s="11">
-        <v>5</v>
-      </c>
-      <c r="F140" s="11"/>
-      <c r="G140" s="11"/>
-      <c r="H140" s="11"/>
+        <v>142</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C140" s="9"/>
+      <c r="D140" s="9"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G140" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="H140" s="9">
+        <v>6</v>
+      </c>
     </row>
     <row r="141" customFormat="1" spans="1:8">
       <c r="A141" s="10">
-        <v>140</v>
-      </c>
-      <c r="B141" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B141" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C141" s="11"/>
+      <c r="D141" s="11"/>
+      <c r="E141" s="11">
+        <v>5</v>
+      </c>
+      <c r="F141" s="11"/>
+      <c r="G141" s="11"/>
+      <c r="H141" s="11"/>
+    </row>
+    <row r="142" s="4" customFormat="1" spans="1:8">
+      <c r="A142" s="7">
+        <v>144</v>
+      </c>
+      <c r="B142" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C141" s="9" t="s">
+      <c r="C142" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D141" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="E141" s="9"/>
-      <c r="F141" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="G141" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="H141" s="9"/>
-    </row>
-    <row r="142" customFormat="1" spans="1:8">
-      <c r="A142" s="10">
-        <v>141</v>
-      </c>
-      <c r="B142" s="11" t="s">
+      <c r="D142" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E142" s="9"/>
+      <c r="F142" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G142" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H142" s="8"/>
+    </row>
+    <row r="143" s="4" customFormat="1" spans="1:8">
+      <c r="A143" s="10">
+        <v>145</v>
+      </c>
+      <c r="B143" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C142" s="11"/>
-      <c r="D142" s="11"/>
-      <c r="E142" s="11">
-        <v>3</v>
-      </c>
-      <c r="F142" s="11"/>
-      <c r="G142" s="11"/>
-      <c r="H142" s="11"/>
-    </row>
-    <row r="143" customFormat="1" spans="1:8">
-      <c r="A143" s="7">
-        <v>142</v>
-      </c>
-      <c r="B143" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C143" s="9"/>
-      <c r="D143" s="9"/>
-      <c r="E143" s="9"/>
-      <c r="F143" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="G143" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="H143" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="144" customFormat="1" spans="1:8">
+      <c r="C143" s="11"/>
+      <c r="D143" s="11"/>
+      <c r="E143" s="11">
+        <v>5</v>
+      </c>
+      <c r="F143" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G143" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H143" s="16"/>
+    </row>
+    <row r="144" s="4" customFormat="1" spans="1:8">
       <c r="A144" s="10">
-        <v>143</v>
-      </c>
-      <c r="B144" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C144" s="11"/>
-      <c r="D144" s="11"/>
-      <c r="E144" s="11">
-        <v>4</v>
-      </c>
-      <c r="F144" s="11"/>
-      <c r="G144" s="11"/>
-      <c r="H144" s="11"/>
+        <v>146</v>
+      </c>
+      <c r="B144" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C144" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D144" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="E144" s="9"/>
+      <c r="F144" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="G144" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="H144" s="8"/>
     </row>
     <row r="145" s="4" customFormat="1" spans="1:8">
       <c r="A145" s="7">
-        <v>144</v>
-      </c>
-      <c r="B145" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C145" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D145" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E145" s="9"/>
-      <c r="F145" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="G145" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="H145" s="8"/>
+        <v>147</v>
+      </c>
+      <c r="B145" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C145" s="11"/>
+      <c r="D145" s="11"/>
+      <c r="E145" s="11">
+        <v>4</v>
+      </c>
+      <c r="F145" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="G145" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="H145" s="16"/>
     </row>
     <row r="146" s="4" customFormat="1" spans="1:8">
       <c r="A146" s="10">
-        <v>145</v>
-      </c>
-      <c r="B146" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C146" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D146" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="E146" s="9"/>
+      <c r="F146" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="G146" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="H146" s="8"/>
+    </row>
+    <row r="147" s="4" customFormat="1" spans="1:8">
+      <c r="A147" s="7">
+        <v>149</v>
+      </c>
+      <c r="B147" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C146" s="11"/>
-      <c r="D146" s="11"/>
-      <c r="E146" s="11">
-        <v>4</v>
-      </c>
-      <c r="F146" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G146" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H146" s="16"/>
-    </row>
-    <row r="147" s="4" customFormat="1" spans="1:8">
-      <c r="A147" s="10">
-        <v>146</v>
-      </c>
-      <c r="B147" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C147" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D147" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="E147" s="9"/>
-      <c r="F147" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="G147" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="H147" s="8"/>
+      <c r="C147" s="11"/>
+      <c r="D147" s="11"/>
+      <c r="E147" s="11">
+        <v>3</v>
+      </c>
+      <c r="F147" s="11"/>
+      <c r="G147" s="11"/>
+      <c r="H147" s="16"/>
     </row>
     <row r="148" s="4" customFormat="1" spans="1:8">
-      <c r="A148" s="7">
-        <v>147</v>
-      </c>
-      <c r="B148" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C148" s="11"/>
-      <c r="D148" s="11"/>
-      <c r="E148" s="11">
-        <v>2</v>
-      </c>
-      <c r="F148" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="G148" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="H148" s="16"/>
+      <c r="A148" s="10">
+        <v>150</v>
+      </c>
+      <c r="B148" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C148" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D148" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="E148" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="F148" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="G148" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="H148" s="8"/>
     </row>
     <row r="149" s="4" customFormat="1" spans="1:8">
       <c r="A149" s="10">
-        <v>148</v>
-      </c>
-      <c r="B149" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="C149" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B149" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C149" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D149" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="E149" s="9"/>
-      <c r="F149" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="G149" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="H149" s="8"/>
+      <c r="D149" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="E149" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="F149" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="G149" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="H149" s="16"/>
     </row>
     <row r="150" s="4" customFormat="1" spans="1:8">
       <c r="A150" s="7">
-        <v>149</v>
-      </c>
-      <c r="B150" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C150" s="11"/>
-      <c r="D150" s="11"/>
-      <c r="E150" s="11">
-        <v>2</v>
-      </c>
-      <c r="F150" s="11"/>
-      <c r="G150" s="11"/>
-      <c r="H150" s="16"/>
+        <v>152</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C150" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D150" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="E150" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="F150" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="G150" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="H150" s="8"/>
     </row>
     <row r="151" s="4" customFormat="1" spans="1:8">
       <c r="A151" s="10">
-        <v>150</v>
-      </c>
-      <c r="B151" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C151" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B151" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C151" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D151" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="E151" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="F151" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="G151" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="H151" s="8"/>
+      <c r="D151" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="E151" s="11"/>
+      <c r="F151" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="G151" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="H151" s="16"/>
     </row>
     <row r="152" s="4" customFormat="1" spans="1:8">
-      <c r="A152" s="10">
-        <v>151</v>
-      </c>
-      <c r="B152" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C152" s="11" t="s">
+      <c r="A152" s="7">
+        <v>154</v>
+      </c>
+      <c r="B152" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C152" s="9"/>
+      <c r="D152" s="12"/>
+      <c r="E152" s="9">
+        <v>5</v>
+      </c>
+      <c r="F152" s="9"/>
+      <c r="G152" s="9"/>
+      <c r="H152" s="8"/>
+    </row>
+    <row r="153" s="4" customFormat="1" spans="1:8">
+      <c r="A153" s="10">
+        <v>155</v>
+      </c>
+      <c r="B153" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C153" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D152" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="E152" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="F152" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="G152" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="H152" s="16"/>
-    </row>
-    <row r="153" s="4" customFormat="1" spans="1:8">
-      <c r="A153" s="7">
-        <v>152</v>
-      </c>
-      <c r="B153" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="C153" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D153" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="E153" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="F153" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="G153" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="H153" s="8"/>
+      <c r="D153" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="E153" s="11"/>
+      <c r="F153" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="G153" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="H153" s="16"/>
     </row>
     <row r="154" s="4" customFormat="1" spans="1:8">
       <c r="A154" s="10">
-        <v>153</v>
-      </c>
-      <c r="B154" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C154" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D154" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="E154" s="11"/>
-      <c r="F154" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="G154" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="H154" s="16"/>
+        <v>156</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C154" s="9"/>
+      <c r="D154" s="9"/>
+      <c r="E154" s="9">
+        <v>5</v>
+      </c>
+      <c r="F154" s="9"/>
+      <c r="G154" s="9"/>
+      <c r="H154" s="8"/>
     </row>
     <row r="155" s="4" customFormat="1" spans="1:8">
       <c r="A155" s="7">
-        <v>154</v>
-      </c>
-      <c r="B155" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C155" s="9"/>
-      <c r="D155" s="12"/>
-      <c r="E155" s="9">
-        <v>4</v>
-      </c>
-      <c r="F155" s="9"/>
-      <c r="G155" s="9"/>
-      <c r="H155" s="8"/>
+        <v>157</v>
+      </c>
+      <c r="B155" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C155" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D155" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E155" s="11"/>
+      <c r="F155" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G155" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H155" s="19">
+        <v>3</v>
+      </c>
     </row>
     <row r="156" s="4" customFormat="1" spans="1:8">
       <c r="A156" s="10">
-        <v>155</v>
-      </c>
-      <c r="B156" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B156" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C156" s="11" t="s">
+      <c r="C156" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D156" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="E156" s="11"/>
-      <c r="F156" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="G156" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="H156" s="16"/>
+      <c r="D156" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E156" s="9"/>
+      <c r="F156" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G156" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H156" s="19"/>
     </row>
     <row r="157" s="4" customFormat="1" spans="1:8">
-      <c r="A157" s="10">
-        <v>156</v>
+      <c r="A157" s="7">
+        <v>159</v>
       </c>
       <c r="B157" s="9" t="s">
         <v>11</v>
@@ -5376,403 +5378,341 @@
       </c>
       <c r="F157" s="9"/>
       <c r="G157" s="9"/>
-      <c r="H157" s="8"/>
+      <c r="H157" s="19"/>
     </row>
     <row r="158" s="4" customFormat="1" spans="1:8">
-      <c r="A158" s="7">
-        <v>157</v>
+      <c r="A158" s="10">
+        <v>160</v>
       </c>
       <c r="B158" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C158" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D158" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E158" s="11"/>
-      <c r="F158" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G158" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H158" s="19">
-        <v>3</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C158" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D158" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="E158" s="18"/>
+      <c r="F158" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="G158" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="H158" s="18"/>
     </row>
     <row r="159" s="4" customFormat="1" spans="1:8">
       <c r="A159" s="10">
-        <v>158</v>
-      </c>
-      <c r="B159" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B159" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C159" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D159" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E159" s="9"/>
-      <c r="F159" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G159" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H159" s="19"/>
+      <c r="C159" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D159" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="E159" s="21"/>
+      <c r="F159" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="G159" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="H159" s="21"/>
     </row>
     <row r="160" s="4" customFormat="1" spans="1:8">
       <c r="A160" s="7">
-        <v>159</v>
-      </c>
-      <c r="B160" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B160" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C160" s="9"/>
-      <c r="D160" s="9"/>
-      <c r="E160" s="9">
-        <v>5</v>
-      </c>
-      <c r="F160" s="9"/>
-      <c r="G160" s="9"/>
-      <c r="H160" s="19"/>
+      <c r="C160" s="18"/>
+      <c r="D160" s="18"/>
+      <c r="E160" s="18">
+        <v>20</v>
+      </c>
+      <c r="F160" s="18"/>
+      <c r="G160" s="18"/>
+      <c r="H160" s="18"/>
     </row>
     <row r="161" s="4" customFormat="1" spans="1:8">
       <c r="A161" s="10">
-        <v>160</v>
-      </c>
-      <c r="B161" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="B161" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C161" s="18" t="s">
+      <c r="C161" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D161" s="20" t="s">
-        <v>230</v>
-      </c>
-      <c r="E161" s="18"/>
-      <c r="F161" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="G161" s="18" t="s">
-        <v>232</v>
-      </c>
-      <c r="H161" s="18"/>
+      <c r="D161" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="E161" s="21"/>
+      <c r="F161" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="G161" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="H161" s="21"/>
     </row>
     <row r="162" s="4" customFormat="1" spans="1:8">
-      <c r="A162" s="10">
-        <v>161</v>
-      </c>
-      <c r="B162" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C162" s="21" t="s">
+      <c r="A162" s="7">
+        <v>164</v>
+      </c>
+      <c r="B162" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C162" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D162" s="22" t="s">
-        <v>233</v>
-      </c>
-      <c r="E162" s="21"/>
-      <c r="F162" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="G162" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="H162" s="21"/>
+      <c r="D162" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="E162" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="F162" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="G162" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="H162" s="18"/>
     </row>
     <row r="163" s="4" customFormat="1" spans="1:8">
-      <c r="A163" s="7">
-        <v>162</v>
-      </c>
-      <c r="B163" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C163" s="18"/>
-      <c r="D163" s="18"/>
-      <c r="E163" s="18">
+      <c r="A163" s="10">
+        <v>165</v>
+      </c>
+      <c r="B163" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C163" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="F163" s="18"/>
-      <c r="G163" s="18"/>
-      <c r="H163" s="18"/>
+      <c r="D163" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="E163" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="F163" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="G163" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="H163" s="21"/>
     </row>
     <row r="164" s="4" customFormat="1" spans="1:8">
       <c r="A164" s="10">
-        <v>163</v>
-      </c>
-      <c r="B164" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C164" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="B164" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="C164" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D164" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="E164" s="21"/>
-      <c r="F164" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="G164" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="H164" s="21"/>
+      <c r="D164" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="E164" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="F164" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="G164" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="H164" s="18"/>
     </row>
     <row r="165" s="4" customFormat="1" spans="1:8">
       <c r="A165" s="7">
-        <v>164</v>
-      </c>
-      <c r="B165" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C165" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D165" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="E165" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="F165" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="G165" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="H165" s="18"/>
+        <v>167</v>
+      </c>
+      <c r="B165" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C165" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D165" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E165" s="21"/>
+      <c r="F165" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="G165" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="H165" s="21"/>
     </row>
     <row r="166" s="4" customFormat="1" spans="1:8">
       <c r="A166" s="10">
-        <v>165</v>
-      </c>
-      <c r="B166" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C166" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="B166" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C166" s="18"/>
+      <c r="D166" s="18"/>
+      <c r="E166" s="18">
         <v>20</v>
       </c>
-      <c r="D166" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="E166" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="F166" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="G166" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="H166" s="21"/>
+      <c r="F166" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G166" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H166" s="18"/>
     </row>
     <row r="167" s="4" customFormat="1" spans="1:8">
-      <c r="A167" s="10">
-        <v>166</v>
-      </c>
-      <c r="B167" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="C167" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D167" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="E167" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="F167" s="18" t="s">
-        <v>222</v>
-      </c>
-      <c r="G167" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="H167" s="18"/>
+      <c r="A167" s="7">
+        <v>169</v>
+      </c>
+      <c r="B167" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="C167" s="21"/>
+      <c r="D167" s="21"/>
+      <c r="E167" s="21"/>
+      <c r="F167" s="21"/>
+      <c r="G167" s="21"/>
+      <c r="H167" s="21"/>
     </row>
     <row r="168" s="4" customFormat="1" spans="1:8">
-      <c r="A168" s="7">
-        <v>167</v>
-      </c>
-      <c r="B168" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C168" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D168" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="E168" s="21"/>
-      <c r="F168" s="21" t="s">
-        <v>225</v>
-      </c>
-      <c r="G168" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="H168" s="21"/>
+      <c r="A168" s="10">
+        <v>170</v>
+      </c>
+      <c r="B168" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C168" s="18"/>
+      <c r="D168" s="18"/>
+      <c r="E168" s="18">
+        <v>10</v>
+      </c>
+      <c r="F168" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G168" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H168" s="18"/>
     </row>
     <row r="169" s="4" customFormat="1" spans="1:8">
       <c r="A169" s="10">
-        <v>168</v>
-      </c>
-      <c r="B169" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C169" s="18"/>
-      <c r="D169" s="18"/>
-      <c r="E169" s="18">
-        <v>20</v>
-      </c>
-      <c r="F169" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G169" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H169" s="18"/>
+        <v>171</v>
+      </c>
+      <c r="B169" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C169" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D169" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="E169" s="21"/>
+      <c r="F169" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="G169" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="H169" s="21"/>
     </row>
     <row r="170" s="4" customFormat="1" spans="1:8">
       <c r="A170" s="7">
-        <v>169</v>
-      </c>
-      <c r="B170" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="C170" s="21"/>
-      <c r="D170" s="21"/>
-      <c r="E170" s="21"/>
-      <c r="F170" s="21"/>
-      <c r="G170" s="21"/>
-      <c r="H170" s="21"/>
+        <v>172</v>
+      </c>
+      <c r="B170" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C170" s="18"/>
+      <c r="D170" s="18"/>
+      <c r="E170" s="18">
+        <v>5</v>
+      </c>
+      <c r="F170" s="18"/>
+      <c r="G170" s="18"/>
+      <c r="H170" s="18"/>
     </row>
     <row r="171" s="4" customFormat="1" spans="1:8">
       <c r="A171" s="10">
-        <v>170</v>
-      </c>
-      <c r="B171" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="B171" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C171" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D171" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="E171" s="11"/>
+      <c r="F171" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="G171" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="H171" s="11"/>
+    </row>
+    <row r="172" s="4" customFormat="1" spans="1:8">
+      <c r="A172" s="7">
+        <v>174</v>
+      </c>
+      <c r="B172" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C171" s="18"/>
-      <c r="D171" s="18"/>
-      <c r="E171" s="18">
-        <v>10</v>
-      </c>
-      <c r="F171" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G171" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H171" s="18"/>
-    </row>
-    <row r="172" s="4" customFormat="1" spans="1:8">
-      <c r="A172" s="10">
-        <v>171</v>
-      </c>
-      <c r="B172" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C172" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D172" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="E172" s="21"/>
-      <c r="F172" s="21" t="s">
-        <v>241</v>
-      </c>
-      <c r="G172" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="H172" s="21"/>
-    </row>
-    <row r="173" s="4" customFormat="1" spans="1:8">
-      <c r="A173" s="7">
-        <v>172</v>
-      </c>
-      <c r="B173" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C173" s="18"/>
-      <c r="D173" s="18"/>
-      <c r="E173" s="18">
-        <v>5</v>
-      </c>
-      <c r="F173" s="18"/>
-      <c r="G173" s="18"/>
-      <c r="H173" s="18"/>
-    </row>
-    <row r="174" s="4" customFormat="1" spans="1:8">
-      <c r="A174" s="10">
-        <v>173</v>
-      </c>
-      <c r="B174" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C174" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D174" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="E174" s="11"/>
-      <c r="F174" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="G174" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="H174" s="11"/>
-    </row>
-    <row r="175" s="4" customFormat="1" spans="1:8">
-      <c r="A175" s="7">
-        <v>174</v>
-      </c>
-      <c r="B175" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C175" s="9"/>
-      <c r="D175" s="9"/>
-      <c r="E175" s="9">
+      <c r="C172" s="9"/>
+      <c r="D172" s="9"/>
+      <c r="E172" s="9">
         <v>4</v>
       </c>
-      <c r="F175" s="9"/>
-      <c r="G175" s="9"/>
-      <c r="H175" s="9"/>
+      <c r="F172" s="9"/>
+      <c r="G172" s="9"/>
+      <c r="H172" s="9"/>
     </row>
   </sheetData>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3 C15 B30 B37 B46 B56 B57 B58 B59 B60 B61 B66 B67 B77 B78 B82 B85 B86 B87 B88 B89 B92 B102 B112 B131 B132 B150 B151 B152 B153 B154 B155 B156 B157 B14:B20 B21:B29 B31:B36 B38:B39 B40:B45 B62:B65 B79:B81 B83:B84 B90:B91 B122:B128 B129:B130 B133:B135 B145:B146 B147:B148 B174:B175 C2:C3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3 C15 B30 B37 B46 B55 B56 B57 B58 B59 B60 B65 B66 B76 B77 B81 B84 B85 B86 B87 B88 B91 B100 B110 B129 B130 B147 B148 B149 B150 B151 B152 B153 B154 B14:B20 B21:B29 B31:B36 B38:B39 B40:B45 B61:B64 B78:B80 B82:B83 B89:B90 B120:B126 B127:B128 B131:B133 B142:B143 B144:B145 B171:B172 C2:C3">
       <formula1>[6]DataList!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>[3]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C12 B13 C13 C47 C68 C93 C103 C113 C136 C158 B159 C159 B160 C160 B4:B12 B47:B55 B68:B76 B93:B101 B103:B111 B113:B121 B136:B144 C7:C9 C48:C51 C52:C55 C69:C72 C73:C76 C94:C97 C98:C101 C104:C107 C108:C111 C114:C117 C118:C121 C137:C140 C141:C144">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C12 B13 C13 C67 C101 C111 C155 B156 C156 B157 C157 B4:B12 B47:B54 B67:B75 B92:B99 B101:B109 B111:B119 B134:B141 C7:C9 C47:C50 C51:C54 C68:C71 C72:C75 C92:C95 C96:C99 C102:C105 C106:C109 C112:C115 C116:C119 C134:C137 C138:C141">
       <formula1>[5]DataList!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14 C16:C20 C21:C25">
       <formula1>[4]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C30 C44 C56 C58 C60 C77 C122 C26:C29 C31:C33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C30 C44 C55 C57 C59 C76 C120 C26:C29 C31:C33">
       <formula1>[1]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C102">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C100">
       <formula1>[2]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B158 B161:B173">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B155 B158:B170">
       <formula1/>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B176:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B173:B1048576">
       <formula1>DataList!$C$2:$C$109</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C176:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C173:C1048576">
       <formula1>DataList!$A$2:$A$11</formula1>
     </dataValidation>
   </dataValidations>
@@ -5803,7 +5743,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5811,20 +5751,20 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C3" t="s">
         <v>248</v>
-      </c>
-      <c r="C3" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -5835,20 +5775,20 @@
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C6" t="s">
         <v>252</v>
-      </c>
-      <c r="C6" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -5856,29 +5796,29 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C8" t="s">
         <v>255</v>
-      </c>
-      <c r="C8" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>256</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>259</v>
+      </c>
+      <c r="C10" t="s">
         <v>260</v>
-      </c>
-      <c r="C10" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -5949,7 +5889,7 @@
         <v>272</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="3:3">
@@ -6039,7 +5979,7 @@
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="42" spans="3:3">
@@ -6192,7 +6132,7 @@
         <v>317</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="72" spans="3:3">
@@ -6205,7 +6145,7 @@
         <v>319</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="74" spans="3:3">
@@ -6233,7 +6173,7 @@
         <v>324</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="79" spans="3:4">
@@ -6241,7 +6181,7 @@
         <v>325</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="80" spans="3:3">
@@ -6331,7 +6271,7 @@
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="98" spans="3:3">

--- a/QA/testcases/LLS/Provider/L_Prov_Patient_App_ViewIncomplete.xlsx
+++ b/QA/testcases/LLS/Provider/L_Prov_Patient_App_ViewIncomplete.xlsx
@@ -1077,9 +1077,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1123,6 +1123,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -1132,14 +1140,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1161,46 +1162,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1215,7 +1178,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1224,6 +1187,43 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1238,13 +1238,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1252,7 +1245,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1299,19 +1299,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1323,13 +1329,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1347,13 +1365,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1365,19 +1395,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1389,13 +1413,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1413,31 +1431,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1449,31 +1467,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1546,11 +1546,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1570,6 +1576,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1580,21 +1595,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1637,7 +1637,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1655,34 +1655,34 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1691,94 +1691,94 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2235,8 +2235,8 @@
   <sheetPr/>
   <dimension ref="A1:H172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="E154" sqref="E154"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="E135" sqref="E135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -4934,7 +4934,7 @@
       <c r="C135" s="11"/>
       <c r="D135" s="11"/>
       <c r="E135" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F135" s="11"/>
       <c r="G135" s="11"/>

--- a/QA/testcases/LLS/Provider/L_Prov_Patient_App_ViewIncomplete.xlsx
+++ b/QA/testcases/LLS/Provider/L_Prov_Patient_App_ViewIncomplete.xlsx
@@ -1077,9 +1077,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1122,85 +1122,8 @@
       <charset val="0"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1222,6 +1145,28 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1237,6 +1182,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1244,10 +1221,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1260,7 +1238,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1293,25 +1293,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1329,19 +1317,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1353,7 +1365,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1371,37 +1437,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1414,66 +1474,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1537,11 +1537,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1561,17 +1591,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1579,23 +1605,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1618,26 +1629,15 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1655,130 +1655,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2235,8 +2235,8 @@
   <sheetPr/>
   <dimension ref="A1:H172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="E135" sqref="E135"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="E160" sqref="E160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2512,7 +2512,7 @@
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>39</v>
@@ -2550,7 +2550,7 @@
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
@@ -2744,7 +2744,7 @@
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>39</v>
@@ -2966,7 +2966,7 @@
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="E34" s="9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F34" s="9" t="s">
         <v>12</v>
@@ -3208,7 +3208,7 @@
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
       <c r="E45" s="11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F45" s="11" t="s">
         <v>12</v>
@@ -3488,7 +3488,7 @@
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
       <c r="E60" s="9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
@@ -3822,7 +3822,7 @@
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
       <c r="E77" s="9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
@@ -4288,7 +4288,7 @@
       <c r="C101" s="11"/>
       <c r="D101" s="11"/>
       <c r="E101" s="11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F101" s="11" t="s">
         <v>12</v>
@@ -4652,7 +4652,7 @@
       <c r="C121" s="11"/>
       <c r="D121" s="11"/>
       <c r="E121" s="11">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F121" s="11" t="s">
         <v>12</v>
@@ -5080,7 +5080,7 @@
       <c r="C143" s="11"/>
       <c r="D143" s="11"/>
       <c r="E143" s="11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F143" s="11" t="s">
         <v>12</v>
@@ -5274,7 +5274,7 @@
       <c r="C152" s="9"/>
       <c r="D152" s="12"/>
       <c r="E152" s="9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F152" s="9"/>
       <c r="G152" s="9"/>
@@ -5434,7 +5434,7 @@
       <c r="C160" s="18"/>
       <c r="D160" s="18"/>
       <c r="E160" s="18">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F160" s="18"/>
       <c r="G160" s="18"/>

--- a/QA/testcases/LLS/Provider/L_Prov_Patient_App_ViewIncomplete.xlsx
+++ b/QA/testcases/LLS/Provider/L_Prov_Patient_App_ViewIncomplete.xlsx
@@ -1077,9 +1077,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1123,14 +1123,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1144,31 +1176,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1190,17 +1199,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1215,7 +1223,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1230,37 +1260,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1293,19 +1293,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1323,73 +1347,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1407,7 +1365,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1419,13 +1377,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1437,43 +1455,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1537,17 +1537,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1572,6 +1566,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1610,34 +1634,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1655,130 +1655,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2235,8 +2235,8 @@
   <sheetPr/>
   <dimension ref="A1:H172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="E160" sqref="E160"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="A127" sqref="$A127:$XFD128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>

--- a/QA/testcases/LLS/Provider/L_Prov_Patient_App_ViewIncomplete.xlsx
+++ b/QA/testcases/LLS/Provider/L_Prov_Patient_App_ViewIncomplete.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343">
   <si>
     <t>Step No</t>
   </si>
@@ -757,15 +757,6 @@
   </si>
   <si>
     <t>Back button clicked</t>
-  </si>
-  <si>
-    <t>PATIENT_LOGOUT</t>
-  </si>
-  <si>
-    <t>Click on logout</t>
-  </si>
-  <si>
-    <t>Logout successfully</t>
   </si>
   <si>
     <t>Actions</t>
@@ -1077,9 +1068,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1122,10 +1113,48 @@
       <charset val="0"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1144,30 +1173,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -1176,10 +1181,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1188,6 +1194,14 @@
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1206,17 +1220,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1229,38 +1234,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1293,7 +1284,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1305,25 +1356,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1335,91 +1386,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1431,37 +1398,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1474,6 +1411,60 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1537,11 +1528,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1551,21 +1548,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1581,21 +1563,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1617,11 +1584,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1634,10 +1614,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1655,130 +1646,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2233,10 +2224,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H172"/>
+  <dimension ref="A1:H169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="A127" sqref="$A127:$XFD128"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="C171" sqref="C171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -3338,7 +3329,7 @@
       <c r="C52" s="11"/>
       <c r="D52" s="11"/>
       <c r="E52" s="11">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
@@ -3374,7 +3365,7 @@
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
       <c r="E54" s="11">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
@@ -3412,7 +3403,7 @@
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
       <c r="E56" s="9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
@@ -3450,7 +3441,7 @@
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
       <c r="E58" s="9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
@@ -3629,2090 +3620,2032 @@
       <c r="H66" s="8"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="7">
-        <v>67</v>
-      </c>
-      <c r="B67" s="11" t="s">
+      <c r="A67" s="10">
+        <v>68</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="7">
+        <v>69</v>
+      </c>
+      <c r="B68" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11">
-        <v>5</v>
-      </c>
-      <c r="F67" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G67" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H67" s="11"/>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="A68" s="10">
-        <v>68</v>
-      </c>
-      <c r="B68" s="9" t="s">
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11">
+        <v>8</v>
+      </c>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="10">
+        <v>70</v>
+      </c>
+      <c r="B69" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C68" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="9"/>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="A69" s="7">
-        <v>69</v>
-      </c>
-      <c r="B69" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="11">
-        <v>5</v>
-      </c>
-      <c r="F69" s="11"/>
-      <c r="G69" s="11"/>
-      <c r="H69" s="11"/>
+      <c r="C69" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="10">
-        <v>70</v>
-      </c>
-      <c r="B70" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11">
+        <v>5</v>
+      </c>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="7">
+        <v>72</v>
+      </c>
+      <c r="B71" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C70" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="9"/>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="A71" s="10">
-        <v>71</v>
-      </c>
-      <c r="B71" s="11" t="s">
+      <c r="C71" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="H71" s="9"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="10">
+        <v>73</v>
+      </c>
+      <c r="B72" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
-      <c r="E71" s="11">
-        <v>5</v>
-      </c>
-      <c r="F71" s="11"/>
-      <c r="G71" s="11"/>
-      <c r="H71" s="11"/>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="A72" s="7">
-        <v>72</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D72" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="G72" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="H72" s="9"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11">
+        <v>8</v>
+      </c>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="10">
-        <v>73</v>
-      </c>
-      <c r="B73" s="11" t="s">
+      <c r="A73" s="7">
+        <v>74</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="H73" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="10">
+        <v>75</v>
+      </c>
+      <c r="B74" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
-      <c r="E73" s="11">
-        <v>5</v>
-      </c>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="11"/>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="A74" s="7">
-        <v>74</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="G74" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="H74" s="9">
-        <v>6</v>
-      </c>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11">
+        <v>8</v>
+      </c>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="10">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B75" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G75" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H75" s="16"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="7">
+        <v>77</v>
+      </c>
+      <c r="B76" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C75" s="11"/>
-      <c r="D75" s="11"/>
-      <c r="E75" s="11">
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9">
+        <v>10</v>
+      </c>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="8"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="10">
+        <v>78</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D77" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="F77" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="G77" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="H77" s="16"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="7">
+        <v>79</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" s="9"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="9">
         <v>5</v>
       </c>
-      <c r="F75" s="11"/>
-      <c r="G75" s="11"/>
-      <c r="H75" s="11"/>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="A76" s="10">
-        <v>76</v>
-      </c>
-      <c r="B76" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C76" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D76" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="E76" s="11"/>
-      <c r="F76" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="G76" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H76" s="16"/>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="A77" s="7">
-        <v>77</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9">
-        <v>10</v>
-      </c>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="8"/>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="A78" s="10">
-        <v>78</v>
-      </c>
-      <c r="B78" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C78" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D78" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="E78" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="F78" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="G78" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="H78" s="16"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="8"/>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="7">
-        <v>79</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C79" s="9"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="9">
-        <v>5</v>
-      </c>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="8"/>
+      <c r="A79" s="10">
+        <v>80</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C79" s="11"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="G79" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="H79" s="16"/>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="10">
-        <v>80</v>
-      </c>
-      <c r="B80" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="C80" s="11"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D80" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="F80" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="G80" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="H80" s="16"/>
+      <c r="G80" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="H80" s="8"/>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="10">
-        <v>81</v>
-      </c>
-      <c r="B81" s="9" t="s">
+      <c r="A81" s="7">
+        <v>82</v>
+      </c>
+      <c r="B81" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C81" s="9" t="s">
+      <c r="C81" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D81" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="E81" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="F81" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="G81" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="H81" s="8"/>
+      <c r="D81" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="F81" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="G81" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="H81" s="16"/>
     </row>
     <row r="82" spans="1:8">
-      <c r="A82" s="7">
-        <v>82</v>
-      </c>
-      <c r="B82" s="11" t="s">
+      <c r="A82" s="10">
+        <v>83</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G82" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="H82" s="8"/>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="7">
+        <v>84</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G83" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="H83" s="16"/>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="10">
+        <v>85</v>
+      </c>
+      <c r="B84" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C82" s="11" t="s">
+      <c r="C84" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D82" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="E82" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="F82" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="G82" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="H82" s="16"/>
-    </row>
-    <row r="83" spans="1:8">
-      <c r="A83" s="10">
-        <v>83</v>
-      </c>
-      <c r="B83" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D83" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="E83" s="9"/>
-      <c r="F83" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="G83" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="H83" s="8"/>
-    </row>
-    <row r="84" spans="1:8">
-      <c r="A84" s="7">
-        <v>84</v>
-      </c>
-      <c r="B84" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C84" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D84" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="E84" s="11"/>
-      <c r="F84" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="G84" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="H84" s="16"/>
+      <c r="D84" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="8"/>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="10">
-        <v>85</v>
-      </c>
-      <c r="B85" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C85" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C85" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D85" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="E85" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="F85" s="9"/>
-      <c r="G85" s="9"/>
-      <c r="H85" s="8"/>
+      <c r="D85" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11"/>
+      <c r="H85" s="16"/>
     </row>
     <row r="86" spans="1:8">
-      <c r="A86" s="10">
-        <v>86</v>
-      </c>
-      <c r="B86" s="11" t="s">
+      <c r="A86" s="7">
+        <v>87</v>
+      </c>
+      <c r="B86" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C86" s="11" t="s">
+      <c r="C86" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D86" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="E86" s="11"/>
-      <c r="F86" s="11"/>
-      <c r="G86" s="11"/>
-      <c r="H86" s="16"/>
+      <c r="D86" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="8"/>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="7">
-        <v>87</v>
-      </c>
-      <c r="B87" s="9" t="s">
+      <c r="A87" s="10">
+        <v>88</v>
+      </c>
+      <c r="B87" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C87" s="9" t="s">
+      <c r="C87" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D87" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="E87" s="9"/>
-      <c r="F87" s="9"/>
-      <c r="G87" s="9"/>
-      <c r="H87" s="8"/>
+      <c r="D87" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="G87" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="H87" s="16"/>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="10">
-        <v>88</v>
-      </c>
-      <c r="B88" s="11" t="s">
+      <c r="A88" s="7">
+        <v>89</v>
+      </c>
+      <c r="B88" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C88" s="11" t="s">
+      <c r="C88" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D88" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="E88" s="11"/>
-      <c r="F88" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="G88" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="H88" s="16"/>
+      <c r="D88" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="8"/>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="7">
-        <v>89</v>
-      </c>
-      <c r="B89" s="9" t="s">
+      <c r="A89" s="10">
+        <v>90</v>
+      </c>
+      <c r="B89" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C89" s="9" t="s">
+      <c r="C89" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D89" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="E89" s="9"/>
-      <c r="F89" s="9"/>
-      <c r="G89" s="9"/>
-      <c r="H89" s="8"/>
+      <c r="D89" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
+      <c r="H89" s="16"/>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="10">
-        <v>90</v>
-      </c>
-      <c r="B90" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C90" s="11" t="s">
+      <c r="C90" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D90" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="E90" s="11"/>
-      <c r="F90" s="11"/>
-      <c r="G90" s="11"/>
-      <c r="H90" s="16"/>
+      <c r="D90" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="G90" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="H90" s="8"/>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="10">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B91" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C91" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="9"/>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="7">
+        <v>94</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11">
+        <v>8</v>
+      </c>
+      <c r="F92" s="11"/>
+      <c r="G92" s="11"/>
+      <c r="H92" s="11"/>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="10">
+        <v>95</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C93" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D91" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="E91" s="9"/>
-      <c r="F91" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="G91" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="H91" s="8"/>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="A92" s="10">
-        <v>93</v>
-      </c>
-      <c r="B92" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C92" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D92" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E92" s="9"/>
-      <c r="F92" s="9"/>
-      <c r="G92" s="9"/>
-      <c r="H92" s="9"/>
-    </row>
-    <row r="93" spans="1:8">
-      <c r="A93" s="7">
-        <v>94</v>
-      </c>
-      <c r="B93" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C93" s="11"/>
-      <c r="D93" s="11"/>
-      <c r="E93" s="11">
-        <v>5</v>
-      </c>
-      <c r="F93" s="11"/>
-      <c r="G93" s="11"/>
-      <c r="H93" s="11"/>
+      <c r="D93" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="9"/>
+      <c r="H93" s="9"/>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="10">
-        <v>95</v>
-      </c>
-      <c r="B94" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11">
+        <v>5</v>
+      </c>
+      <c r="F94" s="11"/>
+      <c r="G94" s="11"/>
+      <c r="H94" s="11"/>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="7">
+        <v>97</v>
+      </c>
+      <c r="B95" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C94" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D94" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E94" s="9"/>
-      <c r="F94" s="9"/>
-      <c r="G94" s="9"/>
-      <c r="H94" s="9"/>
-    </row>
-    <row r="95" spans="1:8">
-      <c r="A95" s="10">
-        <v>96</v>
-      </c>
-      <c r="B95" s="11" t="s">
+      <c r="C95" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G95" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="H95" s="9"/>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="10">
+        <v>98</v>
+      </c>
+      <c r="B96" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C95" s="11"/>
-      <c r="D95" s="11"/>
-      <c r="E95" s="11">
-        <v>5</v>
-      </c>
-      <c r="F95" s="11"/>
-      <c r="G95" s="11"/>
-      <c r="H95" s="11"/>
-    </row>
-    <row r="96" spans="1:8">
-      <c r="A96" s="7">
-        <v>97</v>
-      </c>
-      <c r="B96" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C96" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D96" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="E96" s="9"/>
-      <c r="F96" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="G96" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="H96" s="9"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11">
+        <v>8</v>
+      </c>
+      <c r="F96" s="11"/>
+      <c r="G96" s="11"/>
+      <c r="H96" s="11"/>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" s="10">
-        <v>98</v>
-      </c>
-      <c r="B97" s="11" t="s">
+      <c r="A97" s="7">
+        <v>99</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G97" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="H97" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="10">
+        <v>100</v>
+      </c>
+      <c r="B98" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C97" s="11"/>
-      <c r="D97" s="11"/>
-      <c r="E97" s="11">
-        <v>3</v>
-      </c>
-      <c r="F97" s="11"/>
-      <c r="G97" s="11"/>
-      <c r="H97" s="11"/>
-    </row>
-    <row r="98" spans="1:8">
-      <c r="A98" s="7">
-        <v>99</v>
-      </c>
-      <c r="B98" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C98" s="9"/>
-      <c r="D98" s="9"/>
-      <c r="E98" s="9"/>
-      <c r="F98" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="G98" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="H98" s="9">
-        <v>6</v>
-      </c>
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="11">
+        <v>8</v>
+      </c>
+      <c r="F98" s="11"/>
+      <c r="G98" s="11"/>
+      <c r="H98" s="11"/>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B99" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D99" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E99" s="11"/>
+      <c r="F99" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G99" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H99" s="16"/>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="7">
+        <v>102</v>
+      </c>
+      <c r="B100" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C99" s="11"/>
-      <c r="D99" s="11"/>
-      <c r="E99" s="11">
-        <v>4</v>
-      </c>
-      <c r="F99" s="11"/>
-      <c r="G99" s="11"/>
-      <c r="H99" s="11"/>
-    </row>
-    <row r="100" spans="1:8">
-      <c r="A100" s="10">
-        <v>101</v>
-      </c>
-      <c r="B100" s="11" t="s">
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11">
+        <v>10</v>
+      </c>
+      <c r="F100" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G100" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H100" s="11"/>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="10">
+        <v>103</v>
+      </c>
+      <c r="B101" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C100" s="11" t="s">
+      <c r="C101" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D100" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="E100" s="11"/>
-      <c r="F100" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="G100" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H100" s="16"/>
-    </row>
-    <row r="101" spans="1:8">
-      <c r="A101" s="7">
-        <v>102</v>
-      </c>
-      <c r="B101" s="11" t="s">
+      <c r="D101" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="9"/>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="7">
+        <v>104</v>
+      </c>
+      <c r="B102" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C101" s="11"/>
-      <c r="D101" s="11"/>
-      <c r="E101" s="11">
-        <v>10</v>
-      </c>
-      <c r="F101" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G101" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H101" s="11"/>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="A102" s="10">
-        <v>103</v>
-      </c>
-      <c r="B102" s="9" t="s">
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="11">
+        <v>8</v>
+      </c>
+      <c r="F102" s="11"/>
+      <c r="G102" s="11"/>
+      <c r="H102" s="11"/>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="10">
+        <v>105</v>
+      </c>
+      <c r="B103" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C102" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D102" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E102" s="9"/>
-      <c r="F102" s="9"/>
-      <c r="G102" s="9"/>
-      <c r="H102" s="9"/>
-    </row>
-    <row r="103" spans="1:8">
-      <c r="A103" s="7">
-        <v>104</v>
-      </c>
-      <c r="B103" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C103" s="11"/>
-      <c r="D103" s="11"/>
-      <c r="E103" s="11">
-        <v>5</v>
-      </c>
-      <c r="F103" s="11"/>
-      <c r="G103" s="11"/>
-      <c r="H103" s="11"/>
+      <c r="C103" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="9"/>
+      <c r="H103" s="9"/>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="10">
-        <v>105</v>
-      </c>
-      <c r="B104" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B104" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C104" s="11"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="11">
+        <v>5</v>
+      </c>
+      <c r="F104" s="11"/>
+      <c r="G104" s="11"/>
+      <c r="H104" s="11"/>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="7">
+        <v>107</v>
+      </c>
+      <c r="B105" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C104" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D104" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E104" s="9"/>
-      <c r="F104" s="9"/>
-      <c r="G104" s="9"/>
-      <c r="H104" s="9"/>
-    </row>
-    <row r="105" spans="1:8">
-      <c r="A105" s="10">
-        <v>106</v>
-      </c>
-      <c r="B105" s="11" t="s">
+      <c r="C105" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E105" s="9"/>
+      <c r="F105" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G105" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="H105" s="9"/>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="10">
+        <v>108</v>
+      </c>
+      <c r="B106" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C105" s="11"/>
-      <c r="D105" s="11"/>
-      <c r="E105" s="11">
-        <v>5</v>
-      </c>
-      <c r="F105" s="11"/>
-      <c r="G105" s="11"/>
-      <c r="H105" s="11"/>
-    </row>
-    <row r="106" spans="1:8">
-      <c r="A106" s="7">
-        <v>107</v>
-      </c>
-      <c r="B106" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C106" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D106" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="E106" s="9"/>
-      <c r="F106" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="G106" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="H106" s="9"/>
+      <c r="C106" s="11"/>
+      <c r="D106" s="11"/>
+      <c r="E106" s="11">
+        <v>8</v>
+      </c>
+      <c r="F106" s="11"/>
+      <c r="G106" s="11"/>
+      <c r="H106" s="11"/>
     </row>
     <row r="107" spans="1:8">
-      <c r="A107" s="10">
-        <v>108</v>
-      </c>
-      <c r="B107" s="11" t="s">
+      <c r="A107" s="7">
+        <v>109</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C107" s="9"/>
+      <c r="D107" s="9"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G107" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="H107" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="10">
+        <v>110</v>
+      </c>
+      <c r="B108" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C107" s="11"/>
-      <c r="D107" s="11"/>
-      <c r="E107" s="11">
-        <v>3</v>
-      </c>
-      <c r="F107" s="11"/>
-      <c r="G107" s="11"/>
-      <c r="H107" s="11"/>
-    </row>
-    <row r="108" spans="1:8">
-      <c r="A108" s="7">
-        <v>109</v>
-      </c>
-      <c r="B108" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C108" s="9"/>
-      <c r="D108" s="9"/>
-      <c r="E108" s="9"/>
-      <c r="F108" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="G108" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="H108" s="9">
-        <v>6</v>
-      </c>
+      <c r="C108" s="11"/>
+      <c r="D108" s="11"/>
+      <c r="E108" s="11">
+        <v>8</v>
+      </c>
+      <c r="F108" s="11"/>
+      <c r="G108" s="11"/>
+      <c r="H108" s="11"/>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="10">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C109" s="11"/>
-      <c r="D109" s="11"/>
-      <c r="E109" s="11">
-        <v>5</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C109" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D109" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="E109" s="11"/>
       <c r="F109" s="11"/>
       <c r="G109" s="11"/>
-      <c r="H109" s="11"/>
+      <c r="H109" s="16"/>
     </row>
     <row r="110" spans="1:8">
-      <c r="A110" s="10">
-        <v>111</v>
+      <c r="A110" s="7">
+        <v>112</v>
       </c>
       <c r="B110" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110" s="11"/>
+      <c r="D110" s="11"/>
+      <c r="E110" s="11">
+        <v>1</v>
+      </c>
+      <c r="F110" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G110" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H110" s="11"/>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="10">
+        <v>113</v>
+      </c>
+      <c r="B111" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C110" s="11" t="s">
+      <c r="C111" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E111" s="9"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="9"/>
+      <c r="H111" s="9"/>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="7">
+        <v>114</v>
+      </c>
+      <c r="B112" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C112" s="11"/>
+      <c r="D112" s="11"/>
+      <c r="E112" s="11">
+        <v>8</v>
+      </c>
+      <c r="F112" s="11"/>
+      <c r="G112" s="11"/>
+      <c r="H112" s="11"/>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="10">
+        <v>115</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C113" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D110" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="E110" s="11"/>
-      <c r="F110" s="11"/>
-      <c r="G110" s="11"/>
-      <c r="H110" s="16"/>
-    </row>
-    <row r="111" spans="1:8">
-      <c r="A111" s="7">
-        <v>112</v>
-      </c>
-      <c r="B111" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C111" s="11"/>
-      <c r="D111" s="11"/>
-      <c r="E111" s="11">
-        <v>5</v>
-      </c>
-      <c r="F111" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G111" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H111" s="11"/>
-    </row>
-    <row r="112" spans="1:8">
-      <c r="A112" s="10">
-        <v>113</v>
-      </c>
-      <c r="B112" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C112" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D112" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E112" s="9"/>
-      <c r="F112" s="9"/>
-      <c r="G112" s="9"/>
-      <c r="H112" s="9"/>
-    </row>
-    <row r="113" spans="1:8">
-      <c r="A113" s="7">
-        <v>114</v>
-      </c>
-      <c r="B113" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C113" s="11"/>
-      <c r="D113" s="11"/>
-      <c r="E113" s="11">
-        <v>5</v>
-      </c>
-      <c r="F113" s="11"/>
-      <c r="G113" s="11"/>
-      <c r="H113" s="11"/>
+      <c r="D113" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E113" s="9"/>
+      <c r="F113" s="9"/>
+      <c r="G113" s="9"/>
+      <c r="H113" s="9"/>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="10">
-        <v>115</v>
-      </c>
-      <c r="B114" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B114" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C114" s="11"/>
+      <c r="D114" s="11"/>
+      <c r="E114" s="11">
+        <v>5</v>
+      </c>
+      <c r="F114" s="11"/>
+      <c r="G114" s="11"/>
+      <c r="H114" s="11"/>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="7">
+        <v>117</v>
+      </c>
+      <c r="B115" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C114" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D114" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E114" s="9"/>
-      <c r="F114" s="9"/>
-      <c r="G114" s="9"/>
-      <c r="H114" s="9"/>
-    </row>
-    <row r="115" spans="1:8">
-      <c r="A115" s="10">
-        <v>116</v>
-      </c>
-      <c r="B115" s="11" t="s">
+      <c r="C115" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D115" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E115" s="9"/>
+      <c r="F115" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G115" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="H115" s="9"/>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="10">
+        <v>118</v>
+      </c>
+      <c r="B116" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C115" s="11"/>
-      <c r="D115" s="11"/>
-      <c r="E115" s="11">
-        <v>5</v>
-      </c>
-      <c r="F115" s="11"/>
-      <c r="G115" s="11"/>
-      <c r="H115" s="11"/>
-    </row>
-    <row r="116" spans="1:8">
-      <c r="A116" s="7">
-        <v>117</v>
-      </c>
-      <c r="B116" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C116" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D116" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="E116" s="9"/>
-      <c r="F116" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="G116" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="H116" s="9"/>
+      <c r="C116" s="11"/>
+      <c r="D116" s="11"/>
+      <c r="E116" s="11">
+        <v>8</v>
+      </c>
+      <c r="F116" s="11"/>
+      <c r="G116" s="11"/>
+      <c r="H116" s="11"/>
     </row>
     <row r="117" spans="1:8">
-      <c r="A117" s="10">
-        <v>118</v>
-      </c>
-      <c r="B117" s="11" t="s">
+      <c r="A117" s="7">
+        <v>119</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C117" s="9"/>
+      <c r="D117" s="9"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G117" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="H117" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="10">
+        <v>120</v>
+      </c>
+      <c r="B118" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C117" s="11"/>
-      <c r="D117" s="11"/>
-      <c r="E117" s="11">
-        <v>3</v>
-      </c>
-      <c r="F117" s="11"/>
-      <c r="G117" s="11"/>
-      <c r="H117" s="11"/>
-    </row>
-    <row r="118" spans="1:8">
-      <c r="A118" s="7">
-        <v>119</v>
-      </c>
-      <c r="B118" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C118" s="9"/>
-      <c r="D118" s="9"/>
-      <c r="E118" s="9"/>
-      <c r="F118" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="G118" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="H118" s="9">
-        <v>6</v>
-      </c>
+      <c r="C118" s="11"/>
+      <c r="D118" s="11"/>
+      <c r="E118" s="11">
+        <v>4</v>
+      </c>
+      <c r="F118" s="11"/>
+      <c r="G118" s="11"/>
+      <c r="H118" s="11"/>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="10">
-        <v>120</v>
-      </c>
-      <c r="B119" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D119" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E119" s="9"/>
+      <c r="F119" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G119" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H119" s="8"/>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="7">
+        <v>122</v>
+      </c>
+      <c r="B120" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C119" s="11"/>
-      <c r="D119" s="11"/>
-      <c r="E119" s="11">
-        <v>4</v>
-      </c>
-      <c r="F119" s="11"/>
-      <c r="G119" s="11"/>
-      <c r="H119" s="11"/>
-    </row>
-    <row r="120" spans="1:8">
-      <c r="A120" s="10">
-        <v>121</v>
-      </c>
-      <c r="B120" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C120" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D120" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E120" s="9"/>
-      <c r="F120" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="G120" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="H120" s="8"/>
+      <c r="C120" s="11"/>
+      <c r="D120" s="11"/>
+      <c r="E120" s="11">
+        <v>10</v>
+      </c>
+      <c r="F120" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G120" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H120" s="16"/>
     </row>
     <row r="121" spans="1:8">
-      <c r="A121" s="7">
-        <v>122</v>
-      </c>
-      <c r="B121" s="11" t="s">
+      <c r="A121" s="10">
+        <v>123</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D121" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E121" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="F121" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="G121" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="H121" s="8"/>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="7">
+        <v>124</v>
+      </c>
+      <c r="B122" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C121" s="11"/>
-      <c r="D121" s="11"/>
-      <c r="E121" s="11">
-        <v>10</v>
-      </c>
-      <c r="F121" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G121" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H121" s="16"/>
-    </row>
-    <row r="122" spans="1:8">
-      <c r="A122" s="10">
-        <v>123</v>
-      </c>
-      <c r="B122" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C122" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D122" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="E122" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="F122" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="G122" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="H122" s="8"/>
+      <c r="C122" s="11"/>
+      <c r="D122" s="11"/>
+      <c r="E122" s="11">
+        <v>5</v>
+      </c>
+      <c r="F122" s="11"/>
+      <c r="G122" s="11"/>
+      <c r="H122" s="16"/>
     </row>
     <row r="123" spans="1:8">
-      <c r="A123" s="7">
-        <v>124</v>
-      </c>
-      <c r="B123" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C123" s="11"/>
-      <c r="D123" s="11"/>
-      <c r="E123" s="11">
-        <v>5</v>
-      </c>
-      <c r="F123" s="11"/>
-      <c r="G123" s="11"/>
-      <c r="H123" s="16"/>
+      <c r="A123" s="10">
+        <v>125</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C123" s="9"/>
+      <c r="D123" s="9"/>
+      <c r="E123" s="9"/>
+      <c r="F123" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="G123" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="H123" s="8"/>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="10">
-        <v>125</v>
-      </c>
-      <c r="B124" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="C124" s="9"/>
-      <c r="D124" s="9"/>
-      <c r="E124" s="9"/>
-      <c r="F124" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="G124" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="H124" s="8"/>
+        <v>126</v>
+      </c>
+      <c r="B124" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C124" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D124" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="E124" s="11"/>
+      <c r="F124" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="G124" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="H124" s="16"/>
     </row>
     <row r="125" spans="1:8">
-      <c r="A125" s="10">
-        <v>126</v>
-      </c>
-      <c r="B125" s="11" t="s">
+      <c r="A125" s="7">
+        <v>127</v>
+      </c>
+      <c r="B125" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C125" s="11" t="s">
+      <c r="C125" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D125" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="E125" s="11"/>
-      <c r="F125" s="11" t="s">
+      <c r="D125" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="E125" s="9"/>
+      <c r="F125" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="G125" s="11" t="s">
+      <c r="G125" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="H125" s="16"/>
+      <c r="H125" s="8"/>
     </row>
     <row r="126" spans="1:8">
-      <c r="A126" s="7">
-        <v>127</v>
-      </c>
-      <c r="B126" s="9" t="s">
+      <c r="A126" s="10">
+        <v>128</v>
+      </c>
+      <c r="B126" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C126" s="9" t="s">
+      <c r="C126" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D126" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="E126" s="9"/>
-      <c r="F126" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="G126" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="H126" s="8"/>
+      <c r="D126" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="E126" s="11"/>
+      <c r="F126" s="11"/>
+      <c r="G126" s="11"/>
+      <c r="H126" s="16"/>
     </row>
     <row r="127" spans="1:8">
-      <c r="A127" s="10">
-        <v>128</v>
-      </c>
-      <c r="B127" s="11" t="s">
+      <c r="A127" s="7">
+        <v>129</v>
+      </c>
+      <c r="B127" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C127" s="11" t="s">
+      <c r="C127" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D127" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="E127" s="11"/>
-      <c r="F127" s="11"/>
-      <c r="G127" s="11"/>
-      <c r="H127" s="16"/>
+      <c r="D127" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="E127" s="9"/>
+      <c r="F127" s="9"/>
+      <c r="G127" s="9"/>
+      <c r="H127" s="8"/>
     </row>
     <row r="128" spans="1:8">
-      <c r="A128" s="7">
-        <v>129</v>
-      </c>
-      <c r="B128" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C128" s="9" t="s">
+      <c r="A128" s="10">
+        <v>130</v>
+      </c>
+      <c r="B128" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C128" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D128" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="E128" s="9"/>
-      <c r="F128" s="9"/>
-      <c r="G128" s="9"/>
-      <c r="H128" s="8"/>
+      <c r="D128" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="E128" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="F128" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="G128" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="H128" s="16"/>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="10">
-        <v>130</v>
-      </c>
-      <c r="B129" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C129" s="9"/>
+      <c r="D129" s="9"/>
+      <c r="E129" s="9">
+        <v>5</v>
+      </c>
+      <c r="F129" s="9"/>
+      <c r="G129" s="9"/>
+      <c r="H129" s="8"/>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="7">
+        <v>132</v>
+      </c>
+      <c r="B130" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C130" s="11"/>
+      <c r="D130" s="11"/>
+      <c r="E130" s="11"/>
+      <c r="F130" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="G130" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="H130" s="16"/>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" s="10">
+        <v>133</v>
+      </c>
+      <c r="B131" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C129" s="11" t="s">
+      <c r="C131" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D131" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E131" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="F131" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="G131" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="H131" s="8"/>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" s="7">
+        <v>134</v>
+      </c>
+      <c r="B132" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C132" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D132" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="E132" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="F132" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="G132" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="H132" s="16"/>
+    </row>
+    <row r="133" customFormat="1" spans="1:8">
+      <c r="A133" s="10">
+        <v>136</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D133" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E133" s="9"/>
+      <c r="F133" s="9"/>
+      <c r="G133" s="9"/>
+      <c r="H133" s="9"/>
+    </row>
+    <row r="134" customFormat="1" spans="1:8">
+      <c r="A134" s="7">
+        <v>137</v>
+      </c>
+      <c r="B134" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C134" s="11"/>
+      <c r="D134" s="11"/>
+      <c r="E134" s="11">
+        <v>8</v>
+      </c>
+      <c r="F134" s="11"/>
+      <c r="G134" s="11"/>
+      <c r="H134" s="11"/>
+    </row>
+    <row r="135" customFormat="1" spans="1:8">
+      <c r="A135" s="10">
+        <v>138</v>
+      </c>
+      <c r="B135" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C135" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D129" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="E129" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="F129" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="G129" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="H129" s="16"/>
-    </row>
-    <row r="130" spans="1:8">
-      <c r="A130" s="10">
-        <v>131</v>
-      </c>
-      <c r="B130" s="9" t="s">
+      <c r="D135" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E135" s="9"/>
+      <c r="F135" s="9"/>
+      <c r="G135" s="9"/>
+      <c r="H135" s="9"/>
+    </row>
+    <row r="136" customFormat="1" spans="1:8">
+      <c r="A136" s="7">
+        <v>139</v>
+      </c>
+      <c r="B136" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C130" s="9"/>
-      <c r="D130" s="9"/>
-      <c r="E130" s="9">
+      <c r="C136" s="11"/>
+      <c r="D136" s="11"/>
+      <c r="E136" s="11">
         <v>5</v>
       </c>
-      <c r="F130" s="9"/>
-      <c r="G130" s="9"/>
-      <c r="H130" s="8"/>
-    </row>
-    <row r="131" spans="1:8">
-      <c r="A131" s="7">
-        <v>132</v>
-      </c>
-      <c r="B131" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="C131" s="11"/>
-      <c r="D131" s="11"/>
-      <c r="E131" s="11"/>
-      <c r="F131" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="G131" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="H131" s="16"/>
-    </row>
-    <row r="132" spans="1:8">
-      <c r="A132" s="10">
-        <v>133</v>
-      </c>
-      <c r="B132" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C132" s="9" t="s">
+      <c r="F136" s="11"/>
+      <c r="G136" s="11"/>
+      <c r="H136" s="11"/>
+    </row>
+    <row r="137" customFormat="1" spans="1:8">
+      <c r="A137" s="10">
+        <v>140</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C137" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D132" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="E132" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="F132" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="G132" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="H132" s="8"/>
-    </row>
-    <row r="133" spans="1:8">
-      <c r="A133" s="7">
-        <v>134</v>
-      </c>
-      <c r="B133" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C133" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D133" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="E133" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="F133" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="G133" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="H133" s="16"/>
-    </row>
-    <row r="134" customFormat="1" spans="1:8">
-      <c r="A134" s="10">
-        <v>136</v>
-      </c>
-      <c r="B134" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C134" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D134" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E134" s="9"/>
-      <c r="F134" s="9"/>
-      <c r="G134" s="9"/>
-      <c r="H134" s="9"/>
-    </row>
-    <row r="135" customFormat="1" spans="1:8">
-      <c r="A135" s="7">
-        <v>137</v>
-      </c>
-      <c r="B135" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C135" s="11"/>
-      <c r="D135" s="11"/>
-      <c r="E135" s="11">
-        <v>5</v>
-      </c>
-      <c r="F135" s="11"/>
-      <c r="G135" s="11"/>
-      <c r="H135" s="11"/>
-    </row>
-    <row r="136" customFormat="1" spans="1:8">
-      <c r="A136" s="10">
-        <v>138</v>
-      </c>
-      <c r="B136" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C136" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D136" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E136" s="9"/>
-      <c r="F136" s="9"/>
-      <c r="G136" s="9"/>
-      <c r="H136" s="9"/>
-    </row>
-    <row r="137" customFormat="1" spans="1:8">
-      <c r="A137" s="7">
-        <v>139</v>
-      </c>
-      <c r="B137" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C137" s="11"/>
-      <c r="D137" s="11"/>
-      <c r="E137" s="11">
-        <v>5</v>
-      </c>
-      <c r="F137" s="11"/>
-      <c r="G137" s="11"/>
-      <c r="H137" s="11"/>
+      <c r="D137" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E137" s="9"/>
+      <c r="F137" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G137" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="H137" s="9"/>
     </row>
     <row r="138" customFormat="1" spans="1:8">
       <c r="A138" s="10">
-        <v>140</v>
-      </c>
-      <c r="B138" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B138" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C138" s="11"/>
+      <c r="D138" s="11"/>
+      <c r="E138" s="11">
+        <v>8</v>
+      </c>
+      <c r="F138" s="11"/>
+      <c r="G138" s="11"/>
+      <c r="H138" s="11"/>
+    </row>
+    <row r="139" customFormat="1" spans="1:8">
+      <c r="A139" s="7">
+        <v>142</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C139" s="9"/>
+      <c r="D139" s="9"/>
+      <c r="E139" s="9"/>
+      <c r="F139" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G139" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="H139" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" customFormat="1" spans="1:8">
+      <c r="A140" s="10">
+        <v>143</v>
+      </c>
+      <c r="B140" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C140" s="11"/>
+      <c r="D140" s="11"/>
+      <c r="E140" s="11">
+        <v>8</v>
+      </c>
+      <c r="F140" s="11"/>
+      <c r="G140" s="11"/>
+      <c r="H140" s="11"/>
+    </row>
+    <row r="141" s="4" customFormat="1" spans="1:8">
+      <c r="A141" s="7">
+        <v>144</v>
+      </c>
+      <c r="B141" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C138" s="9" t="s">
+      <c r="C141" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D138" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="E138" s="9"/>
-      <c r="F138" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="G138" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="H138" s="9"/>
-    </row>
-    <row r="139" customFormat="1" spans="1:8">
-      <c r="A139" s="10">
-        <v>141</v>
-      </c>
-      <c r="B139" s="11" t="s">
+      <c r="D141" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E141" s="9"/>
+      <c r="F141" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G141" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H141" s="8"/>
+    </row>
+    <row r="142" s="4" customFormat="1" spans="1:8">
+      <c r="A142" s="10">
+        <v>145</v>
+      </c>
+      <c r="B142" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C139" s="11"/>
-      <c r="D139" s="11"/>
-      <c r="E139" s="11">
-        <v>3</v>
-      </c>
-      <c r="F139" s="11"/>
-      <c r="G139" s="11"/>
-      <c r="H139" s="11"/>
-    </row>
-    <row r="140" customFormat="1" spans="1:8">
-      <c r="A140" s="7">
-        <v>142</v>
-      </c>
-      <c r="B140" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C140" s="9"/>
-      <c r="D140" s="9"/>
-      <c r="E140" s="9"/>
-      <c r="F140" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="G140" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="H140" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="141" customFormat="1" spans="1:8">
-      <c r="A141" s="10">
-        <v>143</v>
-      </c>
-      <c r="B141" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C141" s="11"/>
-      <c r="D141" s="11"/>
-      <c r="E141" s="11">
-        <v>5</v>
-      </c>
-      <c r="F141" s="11"/>
-      <c r="G141" s="11"/>
-      <c r="H141" s="11"/>
-    </row>
-    <row r="142" s="4" customFormat="1" spans="1:8">
-      <c r="A142" s="7">
-        <v>144</v>
-      </c>
-      <c r="B142" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C142" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D142" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E142" s="9"/>
-      <c r="F142" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="G142" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="H142" s="8"/>
+      <c r="C142" s="11"/>
+      <c r="D142" s="11"/>
+      <c r="E142" s="11">
+        <v>10</v>
+      </c>
+      <c r="F142" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G142" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H142" s="16"/>
     </row>
     <row r="143" s="4" customFormat="1" spans="1:8">
       <c r="A143" s="10">
-        <v>145</v>
-      </c>
-      <c r="B143" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B143" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C143" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D143" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="E143" s="9"/>
+      <c r="F143" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="G143" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="H143" s="8"/>
+    </row>
+    <row r="144" s="4" customFormat="1" spans="1:8">
+      <c r="A144" s="7">
+        <v>147</v>
+      </c>
+      <c r="B144" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C143" s="11"/>
-      <c r="D143" s="11"/>
-      <c r="E143" s="11">
-        <v>10</v>
-      </c>
-      <c r="F143" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G143" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H143" s="16"/>
-    </row>
-    <row r="144" s="4" customFormat="1" spans="1:8">
-      <c r="A144" s="10">
-        <v>146</v>
-      </c>
-      <c r="B144" s="9" t="s">
+      <c r="C144" s="11"/>
+      <c r="D144" s="11"/>
+      <c r="E144" s="11">
+        <v>4</v>
+      </c>
+      <c r="F144" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="G144" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="H144" s="16"/>
+    </row>
+    <row r="145" s="4" customFormat="1" spans="1:8">
+      <c r="A145" s="10">
+        <v>148</v>
+      </c>
+      <c r="B145" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C144" s="9" t="s">
+      <c r="C145" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D144" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="E144" s="9"/>
-      <c r="F144" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="G144" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="H144" s="8"/>
-    </row>
-    <row r="145" s="4" customFormat="1" spans="1:8">
-      <c r="A145" s="7">
-        <v>147</v>
-      </c>
-      <c r="B145" s="11" t="s">
+      <c r="D145" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="E145" s="9"/>
+      <c r="F145" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="G145" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="H145" s="8"/>
+    </row>
+    <row r="146" s="4" customFormat="1" spans="1:8">
+      <c r="A146" s="7">
+        <v>149</v>
+      </c>
+      <c r="B146" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C145" s="11"/>
-      <c r="D145" s="11"/>
-      <c r="E145" s="11">
-        <v>4</v>
-      </c>
-      <c r="F145" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="G145" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="H145" s="16"/>
-    </row>
-    <row r="146" s="4" customFormat="1" spans="1:8">
-      <c r="A146" s="10">
-        <v>148</v>
-      </c>
-      <c r="B146" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C146" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D146" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E146" s="9"/>
-      <c r="F146" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="G146" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="H146" s="8"/>
+      <c r="C146" s="11"/>
+      <c r="D146" s="11"/>
+      <c r="E146" s="11">
+        <v>3</v>
+      </c>
+      <c r="F146" s="11"/>
+      <c r="G146" s="11"/>
+      <c r="H146" s="16"/>
     </row>
     <row r="147" s="4" customFormat="1" spans="1:8">
-      <c r="A147" s="7">
-        <v>149</v>
-      </c>
-      <c r="B147" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C147" s="11"/>
-      <c r="D147" s="11"/>
-      <c r="E147" s="11">
-        <v>3</v>
-      </c>
-      <c r="F147" s="11"/>
-      <c r="G147" s="11"/>
-      <c r="H147" s="16"/>
+      <c r="A147" s="10">
+        <v>150</v>
+      </c>
+      <c r="B147" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C147" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D147" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="E147" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="F147" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="G147" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="H147" s="8"/>
     </row>
     <row r="148" s="4" customFormat="1" spans="1:8">
       <c r="A148" s="10">
-        <v>150</v>
-      </c>
-      <c r="B148" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C148" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B148" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C148" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D148" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="E148" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="F148" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="G148" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="H148" s="16"/>
+    </row>
+    <row r="149" s="4" customFormat="1" spans="1:8">
+      <c r="A149" s="7">
+        <v>152</v>
+      </c>
+      <c r="B149" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C149" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D149" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="E149" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="F149" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="G149" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="H149" s="8"/>
+    </row>
+    <row r="150" s="4" customFormat="1" spans="1:8">
+      <c r="A150" s="10">
+        <v>153</v>
+      </c>
+      <c r="B150" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C150" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D148" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="E148" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="F148" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="G148" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="H148" s="8"/>
-    </row>
-    <row r="149" s="4" customFormat="1" spans="1:8">
-      <c r="A149" s="10">
-        <v>151</v>
-      </c>
-      <c r="B149" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C149" s="11" t="s">
+      <c r="D150" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="E150" s="11"/>
+      <c r="F150" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="G150" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="H150" s="16"/>
+    </row>
+    <row r="151" s="4" customFormat="1" spans="1:8">
+      <c r="A151" s="7">
+        <v>154</v>
+      </c>
+      <c r="B151" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C151" s="9"/>
+      <c r="D151" s="12"/>
+      <c r="E151" s="9">
+        <v>10</v>
+      </c>
+      <c r="F151" s="9"/>
+      <c r="G151" s="9"/>
+      <c r="H151" s="8"/>
+    </row>
+    <row r="152" s="4" customFormat="1" spans="1:8">
+      <c r="A152" s="10">
+        <v>155</v>
+      </c>
+      <c r="B152" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C152" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D149" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="E149" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="F149" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="G149" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="H149" s="16"/>
-    </row>
-    <row r="150" s="4" customFormat="1" spans="1:8">
-      <c r="A150" s="7">
-        <v>152</v>
-      </c>
-      <c r="B150" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="C150" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D150" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="E150" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="F150" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="G150" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="H150" s="8"/>
-    </row>
-    <row r="151" s="4" customFormat="1" spans="1:8">
-      <c r="A151" s="10">
-        <v>153</v>
-      </c>
-      <c r="B151" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C151" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D151" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="E151" s="11"/>
-      <c r="F151" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="G151" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="H151" s="16"/>
-    </row>
-    <row r="152" s="4" customFormat="1" spans="1:8">
-      <c r="A152" s="7">
-        <v>154</v>
-      </c>
-      <c r="B152" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C152" s="9"/>
-      <c r="D152" s="12"/>
-      <c r="E152" s="9">
-        <v>10</v>
-      </c>
-      <c r="F152" s="9"/>
-      <c r="G152" s="9"/>
-      <c r="H152" s="8"/>
+      <c r="D152" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="E152" s="11"/>
+      <c r="F152" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="G152" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="H152" s="16"/>
     </row>
     <row r="153" s="4" customFormat="1" spans="1:8">
       <c r="A153" s="10">
-        <v>155</v>
-      </c>
-      <c r="B153" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B153" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C153" s="9"/>
+      <c r="D153" s="9"/>
+      <c r="E153" s="9">
+        <v>6</v>
+      </c>
+      <c r="F153" s="9"/>
+      <c r="G153" s="9"/>
+      <c r="H153" s="8"/>
+    </row>
+    <row r="154" s="4" customFormat="1" spans="1:8">
+      <c r="A154" s="7">
+        <v>157</v>
+      </c>
+      <c r="B154" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C154" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D154" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E154" s="11"/>
+      <c r="F154" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G154" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H154" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" s="4" customFormat="1" spans="1:8">
+      <c r="A155" s="10">
+        <v>158</v>
+      </c>
+      <c r="B155" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C153" s="11" t="s">
+      <c r="C155" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D153" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="E153" s="11"/>
-      <c r="F153" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="G153" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="H153" s="16"/>
-    </row>
-    <row r="154" s="4" customFormat="1" spans="1:8">
-      <c r="A154" s="10">
-        <v>156</v>
-      </c>
-      <c r="B154" s="9" t="s">
+      <c r="D155" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E155" s="9"/>
+      <c r="F155" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G155" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H155" s="19"/>
+    </row>
+    <row r="156" s="4" customFormat="1" spans="1:8">
+      <c r="A156" s="7">
+        <v>159</v>
+      </c>
+      <c r="B156" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C154" s="9"/>
-      <c r="D154" s="9"/>
-      <c r="E154" s="9">
+      <c r="C156" s="9"/>
+      <c r="D156" s="9"/>
+      <c r="E156" s="9">
         <v>5</v>
       </c>
-      <c r="F154" s="9"/>
-      <c r="G154" s="9"/>
-      <c r="H154" s="8"/>
-    </row>
-    <row r="155" s="4" customFormat="1" spans="1:8">
-      <c r="A155" s="7">
-        <v>157</v>
-      </c>
-      <c r="B155" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C155" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D155" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E155" s="11"/>
-      <c r="F155" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G155" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H155" s="19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="156" s="4" customFormat="1" spans="1:8">
-      <c r="A156" s="10">
-        <v>158</v>
-      </c>
-      <c r="B156" s="9" t="s">
+      <c r="F156" s="9"/>
+      <c r="G156" s="9"/>
+      <c r="H156" s="19"/>
+    </row>
+    <row r="157" s="4" customFormat="1" spans="1:8">
+      <c r="A157" s="10">
+        <v>160</v>
+      </c>
+      <c r="B157" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C156" s="9" t="s">
+      <c r="C157" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D156" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E156" s="9"/>
-      <c r="F156" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G156" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H156" s="19"/>
-    </row>
-    <row r="157" s="4" customFormat="1" spans="1:8">
-      <c r="A157" s="7">
-        <v>159</v>
-      </c>
-      <c r="B157" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C157" s="9"/>
-      <c r="D157" s="9"/>
-      <c r="E157" s="9">
-        <v>5</v>
-      </c>
-      <c r="F157" s="9"/>
-      <c r="G157" s="9"/>
-      <c r="H157" s="19"/>
+      <c r="D157" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="E157" s="18"/>
+      <c r="F157" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="G157" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="H157" s="18"/>
     </row>
     <row r="158" s="4" customFormat="1" spans="1:8">
       <c r="A158" s="10">
-        <v>160</v>
-      </c>
-      <c r="B158" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="B158" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C158" s="18" t="s">
+      <c r="C158" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D158" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="E158" s="21"/>
+      <c r="F158" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="G158" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="H158" s="21"/>
+    </row>
+    <row r="159" s="4" customFormat="1" spans="1:8">
+      <c r="A159" s="7">
+        <v>162</v>
+      </c>
+      <c r="B159" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C159" s="18"/>
+      <c r="D159" s="18"/>
+      <c r="E159" s="18">
+        <v>10</v>
+      </c>
+      <c r="F159" s="18"/>
+      <c r="G159" s="18"/>
+      <c r="H159" s="18"/>
+    </row>
+    <row r="160" s="4" customFormat="1" spans="1:8">
+      <c r="A160" s="10">
+        <v>163</v>
+      </c>
+      <c r="B160" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C160" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D158" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="E158" s="18"/>
-      <c r="F158" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="G158" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="H158" s="18"/>
-    </row>
-    <row r="159" s="4" customFormat="1" spans="1:8">
-      <c r="A159" s="10">
-        <v>161</v>
-      </c>
-      <c r="B159" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C159" s="21" t="s">
+      <c r="D160" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="E160" s="21"/>
+      <c r="F160" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="G160" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="H160" s="21"/>
+    </row>
+    <row r="161" s="4" customFormat="1" spans="1:8">
+      <c r="A161" s="7">
+        <v>164</v>
+      </c>
+      <c r="B161" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C161" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D159" s="22" t="s">
-        <v>232</v>
-      </c>
-      <c r="E159" s="21"/>
-      <c r="F159" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="G159" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="H159" s="21"/>
-    </row>
-    <row r="160" s="4" customFormat="1" spans="1:8">
-      <c r="A160" s="7">
-        <v>162</v>
-      </c>
-      <c r="B160" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C160" s="18"/>
-      <c r="D160" s="18"/>
-      <c r="E160" s="18">
-        <v>15</v>
-      </c>
-      <c r="F160" s="18"/>
-      <c r="G160" s="18"/>
-      <c r="H160" s="18"/>
-    </row>
-    <row r="161" s="4" customFormat="1" spans="1:8">
-      <c r="A161" s="10">
-        <v>163</v>
-      </c>
-      <c r="B161" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C161" s="21" t="s">
+      <c r="D161" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="E161" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="F161" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="G161" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="H161" s="18"/>
+    </row>
+    <row r="162" s="4" customFormat="1" spans="1:8">
+      <c r="A162" s="10">
+        <v>165</v>
+      </c>
+      <c r="B162" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C162" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D161" s="22" t="s">
-        <v>235</v>
-      </c>
-      <c r="E161" s="21"/>
-      <c r="F161" s="21" t="s">
-        <v>236</v>
-      </c>
-      <c r="G161" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="H161" s="21"/>
-    </row>
-    <row r="162" s="4" customFormat="1" spans="1:8">
-      <c r="A162" s="7">
-        <v>164</v>
-      </c>
-      <c r="B162" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C162" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D162" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="E162" s="18" t="s">
-        <v>211</v>
-      </c>
-      <c r="F162" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="G162" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="H162" s="18"/>
+      <c r="D162" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="E162" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="F162" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="G162" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="H162" s="21"/>
     </row>
     <row r="163" s="4" customFormat="1" spans="1:8">
       <c r="A163" s="10">
-        <v>165</v>
-      </c>
-      <c r="B163" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C163" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="B163" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="C163" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D163" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="E163" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="F163" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="G163" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="H163" s="21"/>
+      <c r="D163" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="E163" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="F163" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="G163" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="H163" s="18"/>
     </row>
     <row r="164" s="4" customFormat="1" spans="1:8">
-      <c r="A164" s="10">
-        <v>166</v>
-      </c>
-      <c r="B164" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="C164" s="18" t="s">
+      <c r="A164" s="7">
+        <v>167</v>
+      </c>
+      <c r="B164" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C164" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D164" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="E164" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="F164" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="G164" s="18" t="s">
-        <v>222</v>
-      </c>
-      <c r="H164" s="18"/>
+      <c r="D164" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E164" s="21"/>
+      <c r="F164" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="G164" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="H164" s="21"/>
     </row>
     <row r="165" s="4" customFormat="1" spans="1:8">
-      <c r="A165" s="7">
-        <v>167</v>
-      </c>
-      <c r="B165" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C165" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D165" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="E165" s="21"/>
-      <c r="F165" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="G165" s="21" t="s">
-        <v>225</v>
-      </c>
-      <c r="H165" s="21"/>
+      <c r="A165" s="10">
+        <v>168</v>
+      </c>
+      <c r="B165" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C165" s="18"/>
+      <c r="D165" s="18"/>
+      <c r="E165" s="18">
+        <v>10</v>
+      </c>
+      <c r="F165" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G165" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H165" s="18"/>
     </row>
     <row r="166" s="4" customFormat="1" spans="1:8">
-      <c r="A166" s="10">
-        <v>168</v>
-      </c>
-      <c r="B166" s="18" t="s">
+      <c r="A166" s="7">
+        <v>169</v>
+      </c>
+      <c r="B166" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="C166" s="21"/>
+      <c r="D166" s="21"/>
+      <c r="E166" s="21"/>
+      <c r="F166" s="21"/>
+      <c r="G166" s="21"/>
+      <c r="H166" s="21"/>
+    </row>
+    <row r="167" s="4" customFormat="1" spans="1:8">
+      <c r="A167" s="10">
+        <v>170</v>
+      </c>
+      <c r="B167" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C166" s="18"/>
-      <c r="D166" s="18"/>
-      <c r="E166" s="18">
-        <v>20</v>
-      </c>
-      <c r="F166" s="18" t="s">
+      <c r="C167" s="18"/>
+      <c r="D167" s="18"/>
+      <c r="E167" s="18">
+        <v>10</v>
+      </c>
+      <c r="F167" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G166" s="18" t="s">
+      <c r="G167" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H166" s="18"/>
-    </row>
-    <row r="167" s="4" customFormat="1" spans="1:8">
-      <c r="A167" s="7">
-        <v>169</v>
-      </c>
-      <c r="B167" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="C167" s="21"/>
-      <c r="D167" s="21"/>
-      <c r="E167" s="21"/>
-      <c r="F167" s="21"/>
-      <c r="G167" s="21"/>
-      <c r="H167" s="21"/>
+      <c r="H167" s="18"/>
     </row>
     <row r="168" s="4" customFormat="1" spans="1:8">
       <c r="A168" s="10">
-        <v>170</v>
-      </c>
-      <c r="B168" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B168" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C168" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D168" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="E168" s="21"/>
+      <c r="F168" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="G168" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="H168" s="21"/>
+    </row>
+    <row r="169" s="4" customFormat="1" spans="1:8">
+      <c r="A169" s="7">
+        <v>172</v>
+      </c>
+      <c r="B169" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C168" s="18"/>
-      <c r="D168" s="18"/>
-      <c r="E168" s="18">
-        <v>10</v>
-      </c>
-      <c r="F168" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G168" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H168" s="18"/>
-    </row>
-    <row r="169" s="4" customFormat="1" spans="1:8">
-      <c r="A169" s="10">
-        <v>171</v>
-      </c>
-      <c r="B169" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C169" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D169" s="22" t="s">
-        <v>239</v>
-      </c>
-      <c r="E169" s="21"/>
-      <c r="F169" s="21" t="s">
-        <v>240</v>
-      </c>
-      <c r="G169" s="21" t="s">
-        <v>241</v>
-      </c>
-      <c r="H169" s="21"/>
-    </row>
-    <row r="170" s="4" customFormat="1" spans="1:8">
-      <c r="A170" s="7">
-        <v>172</v>
-      </c>
-      <c r="B170" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C170" s="18"/>
-      <c r="D170" s="18"/>
-      <c r="E170" s="18">
+      <c r="C169" s="18"/>
+      <c r="D169" s="18"/>
+      <c r="E169" s="18">
         <v>5</v>
       </c>
-      <c r="F170" s="18"/>
-      <c r="G170" s="18"/>
-      <c r="H170" s="18"/>
-    </row>
-    <row r="171" s="4" customFormat="1" spans="1:8">
-      <c r="A171" s="10">
-        <v>173</v>
-      </c>
-      <c r="B171" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C171" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D171" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="E171" s="11"/>
-      <c r="F171" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="G171" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="H171" s="11"/>
-    </row>
-    <row r="172" s="4" customFormat="1" spans="1:8">
-      <c r="A172" s="7">
-        <v>174</v>
-      </c>
-      <c r="B172" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C172" s="9"/>
-      <c r="D172" s="9"/>
-      <c r="E172" s="9">
-        <v>4</v>
-      </c>
-      <c r="F172" s="9"/>
-      <c r="G172" s="9"/>
-      <c r="H172" s="9"/>
+      <c r="F169" s="18"/>
+      <c r="G169" s="18"/>
+      <c r="H169" s="18"/>
     </row>
   </sheetData>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3 C15 B30 B37 B46 B55 B56 B57 B58 B59 B60 B65 B66 B76 B77 B81 B84 B85 B86 B87 B88 B91 B100 B110 B129 B130 B147 B148 B149 B150 B151 B152 B153 B154 B14:B20 B21:B29 B31:B36 B38:B39 B40:B45 B61:B64 B78:B80 B82:B83 B89:B90 B120:B126 B127:B128 B131:B133 B142:B143 B144:B145 B171:B172 C2:C3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3 C15 B30 B37 B46 B55 B56 B57 B58 B59 B60 B65 B66 B75 B76 B80 B83 B84 B85 B86 B87 B90 B99 B109 B128 B129 B146 B147 B148 B149 B150 B151 B152 B153 B14:B20 B21:B29 B31:B36 B38:B39 B40:B45 B61:B64 B77:B79 B81:B82 B88:B89 B119:B125 B126:B127 B130:B132 B141:B142 B143:B144 C2:C3">
       <formula1>[6]DataList!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>[3]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C12 B13 C13 C67 C101 C111 C155 B156 C156 B157 C157 B4:B12 B47:B54 B67:B75 B92:B99 B101:B109 B111:B119 B134:B141 C7:C9 C47:C50 C51:C54 C68:C71 C72:C75 C92:C95 C96:C99 C102:C105 C106:C109 C112:C115 C116:C119 C134:C137 C138:C141">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C12 B13 C13 C100 C110 C154 B155 C155 B156 C156 B4:B12 B47:B54 B67:B74 B91:B98 B100:B108 B110:B118 B133:B140 C7:C9 C47:C50 C51:C54 C67:C70 C71:C74 C91:C94 C95:C98 C101:C104 C105:C108 C111:C114 C115:C118 C133:C136 C137:C140">
       <formula1>[5]DataList!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14 C16:C20 C21:C25">
       <formula1>[4]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C30 C44 C55 C57 C59 C76 C120 C26:C29 C31:C33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C30 C44 C55 C57 C59 C75 C119 C26:C29 C31:C33">
       <formula1>[1]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C100">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C99">
       <formula1>[2]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B155 B158:B170">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B154 B157:B169">
       <formula1/>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B173:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B170:B1048576">
       <formula1>DataList!$C$2:$C$109</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C173:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C170:C1048576">
       <formula1>DataList!$A$2:$A$11</formula1>
     </dataValidation>
   </dataValidations>
@@ -5743,7 +5676,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5751,20 +5684,20 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -5775,20 +5708,20 @@
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -5796,47 +5729,47 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C8" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C10" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C11" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="3:3">
@@ -5846,12 +5779,12 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -5861,55 +5794,55 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -5919,62 +5852,62 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="41" spans="3:3">
@@ -5984,87 +5917,87 @@
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="59" spans="3:3">
@@ -6074,199 +6007,199 @@
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="97" spans="3:3">
@@ -6276,7 +6209,7 @@
     </row>
     <row r="98" spans="3:3">
       <c r="C98" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="99" spans="3:3">
@@ -6286,12 +6219,12 @@
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="102" spans="3:3">

--- a/QA/testcases/LLS/Provider/L_Prov_Patient_App_ViewIncomplete.xlsx
+++ b/QA/testcases/LLS/Provider/L_Prov_Patient_App_ViewIncomplete.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341">
   <si>
     <t>Step No</t>
   </si>
@@ -489,21 +489,18 @@
     <t>Insurance selected</t>
   </si>
   <si>
+    <t>SelectByIndex</t>
+  </si>
+  <si>
     <t>APP_INS_TYPE</t>
   </si>
   <si>
-    <t>Medicare</t>
-  </si>
-  <si>
     <t>Insurance type selected</t>
   </si>
   <si>
     <t>APP_PLANTYPE</t>
   </si>
   <si>
-    <t>Other</t>
-  </si>
-  <si>
     <t>Select Plan type</t>
   </si>
   <si>
@@ -847,9 +844,6 @@
   </si>
   <si>
     <t>SelectCheckBox</t>
-  </si>
-  <si>
-    <t>SelectByIndex</t>
   </si>
   <si>
     <t>SelectByValue</t>
@@ -1113,6 +1107,68 @@
       <charset val="0"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1121,6 +1177,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1129,7 +1186,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1150,11 +1207,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1165,78 +1221,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1250,10 +1244,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1284,13 +1278,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1308,7 +1362,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1320,19 +1374,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1344,73 +1410,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1422,37 +1428,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1529,45 +1523,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1586,7 +1541,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1608,6 +1593,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1617,18 +1613,16 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1646,130 +1640,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2226,8 +2220,8 @@
   <sheetPr/>
   <dimension ref="A1:H169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="C171" sqref="C171"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -3862,16 +3856,16 @@
         <v>81</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>41</v>
+        <v>152</v>
       </c>
       <c r="C80" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="E80" s="9" t="s">
         <v>153</v>
+      </c>
+      <c r="E80" s="9">
+        <v>1</v>
       </c>
       <c r="F80" s="9" t="s">
         <v>150</v>
@@ -3886,7 +3880,7 @@
         <v>82</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>41</v>
+        <v>152</v>
       </c>
       <c r="C81" s="11" t="s">
         <v>20</v>
@@ -3894,14 +3888,14 @@
       <c r="D81" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="E81" s="11" t="s">
+      <c r="E81" s="11">
+        <v>1</v>
+      </c>
+      <c r="F81" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="F81" s="11" t="s">
+      <c r="G81" s="11" t="s">
         <v>157</v>
-      </c>
-      <c r="G81" s="11" t="s">
-        <v>158</v>
       </c>
       <c r="H81" s="16"/>
     </row>
@@ -3916,14 +3910,14 @@
         <v>15</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E82" s="9"/>
       <c r="F82" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="G82" s="9" t="s">
         <v>160</v>
-      </c>
-      <c r="G82" s="9" t="s">
-        <v>161</v>
       </c>
       <c r="H82" s="8"/>
     </row>
@@ -3938,14 +3932,14 @@
         <v>15</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E83" s="11"/>
       <c r="F83" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="G83" s="11" t="s">
         <v>163</v>
-      </c>
-      <c r="G83" s="11" t="s">
-        <v>164</v>
       </c>
       <c r="H83" s="16"/>
     </row>
@@ -3960,10 +3954,10 @@
         <v>20</v>
       </c>
       <c r="D84" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E84" s="9" t="s">
         <v>165</v>
-      </c>
-      <c r="E84" s="9" t="s">
-        <v>166</v>
       </c>
       <c r="F84" s="9"/>
       <c r="G84" s="9"/>
@@ -3980,7 +3974,7 @@
         <v>20</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E85" s="11"/>
       <c r="F85" s="11"/>
@@ -3998,7 +3992,7 @@
         <v>20</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E86" s="9"/>
       <c r="F86" s="9"/>
@@ -4016,14 +4010,14 @@
         <v>20</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E87" s="11"/>
       <c r="F87" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="G87" s="11" t="s">
         <v>170</v>
-      </c>
-      <c r="G87" s="11" t="s">
-        <v>171</v>
       </c>
       <c r="H87" s="16"/>
     </row>
@@ -4038,7 +4032,7 @@
         <v>20</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E88" s="9"/>
       <c r="F88" s="9"/>
@@ -4056,7 +4050,7 @@
         <v>20</v>
       </c>
       <c r="D89" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E89" s="11"/>
       <c r="F89" s="11"/>
@@ -4074,14 +4068,14 @@
         <v>20</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E90" s="9"/>
       <c r="F90" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="G90" s="9" t="s">
         <v>175</v>
-      </c>
-      <c r="G90" s="9" t="s">
-        <v>176</v>
       </c>
       <c r="H90" s="8"/>
     </row>
@@ -4422,7 +4416,7 @@
         <v>20</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E109" s="11"/>
       <c r="F109" s="11"/>
@@ -4644,16 +4638,16 @@
         <v>20</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E121" s="9" t="s">
         <v>146</v>
       </c>
       <c r="F121" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="G121" s="9" t="s">
         <v>179</v>
-      </c>
-      <c r="G121" s="9" t="s">
-        <v>180</v>
       </c>
       <c r="H121" s="8"/>
     </row>
@@ -4684,10 +4678,10 @@
       <c r="D123" s="9"/>
       <c r="E123" s="9"/>
       <c r="F123" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="G123" s="9" t="s">
         <v>181</v>
-      </c>
-      <c r="G123" s="9" t="s">
-        <v>182</v>
       </c>
       <c r="H123" s="8"/>
     </row>
@@ -4702,14 +4696,14 @@
         <v>20</v>
       </c>
       <c r="D124" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E124" s="11"/>
       <c r="F124" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="G124" s="11" t="s">
         <v>184</v>
-      </c>
-      <c r="G124" s="11" t="s">
-        <v>185</v>
       </c>
       <c r="H124" s="16"/>
     </row>
@@ -4724,14 +4718,14 @@
         <v>20</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E125" s="9"/>
       <c r="F125" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="G125" s="9" t="s">
         <v>184</v>
-      </c>
-      <c r="G125" s="9" t="s">
-        <v>185</v>
       </c>
       <c r="H125" s="8"/>
     </row>
@@ -4746,7 +4740,7 @@
         <v>20</v>
       </c>
       <c r="D126" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E126" s="11"/>
       <c r="F126" s="11"/>
@@ -4764,7 +4758,7 @@
         <v>20</v>
       </c>
       <c r="D127" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E127" s="9"/>
       <c r="F127" s="9"/>
@@ -4782,16 +4776,16 @@
         <v>20</v>
       </c>
       <c r="D128" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E128" s="11" t="s">
         <v>146</v>
       </c>
       <c r="F128" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="G128" s="11" t="s">
         <v>190</v>
-      </c>
-      <c r="G128" s="11" t="s">
-        <v>191</v>
       </c>
       <c r="H128" s="16"/>
     </row>
@@ -4822,10 +4816,10 @@
       <c r="D130" s="11"/>
       <c r="E130" s="11"/>
       <c r="F130" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="G130" s="11" t="s">
         <v>192</v>
-      </c>
-      <c r="G130" s="11" t="s">
-        <v>193</v>
       </c>
       <c r="H130" s="16"/>
     </row>
@@ -4840,16 +4834,16 @@
         <v>15</v>
       </c>
       <c r="D131" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="E131" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="E131" s="9" t="s">
+      <c r="F131" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="F131" s="9" t="s">
+      <c r="G131" s="9" t="s">
         <v>196</v>
-      </c>
-      <c r="G131" s="9" t="s">
-        <v>197</v>
       </c>
       <c r="H131" s="8"/>
     </row>
@@ -4864,16 +4858,16 @@
         <v>15</v>
       </c>
       <c r="D132" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="E132" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="E132" s="11" t="s">
+      <c r="F132" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="F132" s="11" t="s">
+      <c r="G132" s="11" t="s">
         <v>200</v>
-      </c>
-      <c r="G132" s="11" t="s">
-        <v>201</v>
       </c>
       <c r="H132" s="16"/>
     </row>
@@ -5072,14 +5066,14 @@
         <v>20</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E143" s="9"/>
       <c r="F143" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="G143" s="9" t="s">
         <v>203</v>
-      </c>
-      <c r="G143" s="9" t="s">
-        <v>204</v>
       </c>
       <c r="H143" s="8"/>
     </row>
@@ -5096,10 +5090,10 @@
         <v>4</v>
       </c>
       <c r="F144" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="G144" s="11" t="s">
         <v>205</v>
-      </c>
-      <c r="G144" s="11" t="s">
-        <v>206</v>
       </c>
       <c r="H144" s="16"/>
     </row>
@@ -5114,14 +5108,14 @@
         <v>20</v>
       </c>
       <c r="D145" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E145" s="9"/>
       <c r="F145" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="G145" s="9" t="s">
         <v>208</v>
-      </c>
-      <c r="G145" s="9" t="s">
-        <v>209</v>
       </c>
       <c r="H145" s="8"/>
     </row>
@@ -5152,16 +5146,16 @@
         <v>15</v>
       </c>
       <c r="D147" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="E147" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="E147" s="9" t="s">
+      <c r="F147" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="F147" s="9" t="s">
+      <c r="G147" s="9" t="s">
         <v>212</v>
-      </c>
-      <c r="G147" s="9" t="s">
-        <v>213</v>
       </c>
       <c r="H147" s="8"/>
     </row>
@@ -5176,16 +5170,16 @@
         <v>20</v>
       </c>
       <c r="D148" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="E148" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="E148" s="11" t="s">
+      <c r="F148" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="F148" s="11" t="s">
+      <c r="G148" s="11" t="s">
         <v>216</v>
-      </c>
-      <c r="G148" s="11" t="s">
-        <v>217</v>
       </c>
       <c r="H148" s="16"/>
     </row>
@@ -5194,22 +5188,22 @@
         <v>152</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C149" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D149" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="E149" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="E149" s="9" t="s">
+      <c r="F149" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="F149" s="9" t="s">
+      <c r="G149" s="9" t="s">
         <v>221</v>
-      </c>
-      <c r="G149" s="9" t="s">
-        <v>222</v>
       </c>
       <c r="H149" s="8"/>
     </row>
@@ -5224,14 +5218,14 @@
         <v>15</v>
       </c>
       <c r="D150" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E150" s="11"/>
       <c r="F150" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="G150" s="11" t="s">
         <v>224</v>
-      </c>
-      <c r="G150" s="11" t="s">
-        <v>225</v>
       </c>
       <c r="H150" s="16"/>
     </row>
@@ -5262,14 +5256,14 @@
         <v>20</v>
       </c>
       <c r="D152" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E152" s="11"/>
       <c r="F152" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="G152" s="11" t="s">
         <v>227</v>
-      </c>
-      <c r="G152" s="11" t="s">
-        <v>228</v>
       </c>
       <c r="H152" s="16"/>
     </row>
@@ -5362,14 +5356,14 @@
         <v>20</v>
       </c>
       <c r="D157" s="20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E157" s="18"/>
       <c r="F157" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="G157" s="18" t="s">
         <v>230</v>
-      </c>
-      <c r="G157" s="18" t="s">
-        <v>231</v>
       </c>
       <c r="H157" s="18"/>
     </row>
@@ -5384,14 +5378,14 @@
         <v>15</v>
       </c>
       <c r="D158" s="22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E158" s="21"/>
       <c r="F158" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="G158" s="21" t="s">
         <v>233</v>
-      </c>
-      <c r="G158" s="21" t="s">
-        <v>234</v>
       </c>
       <c r="H158" s="21"/>
     </row>
@@ -5422,14 +5416,14 @@
         <v>20</v>
       </c>
       <c r="D160" s="22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E160" s="21"/>
       <c r="F160" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="G160" s="21" t="s">
         <v>236</v>
-      </c>
-      <c r="G160" s="21" t="s">
-        <v>237</v>
       </c>
       <c r="H160" s="21"/>
     </row>
@@ -5444,16 +5438,16 @@
         <v>15</v>
       </c>
       <c r="D161" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="E161" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="E161" s="18" t="s">
+      <c r="F161" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="F161" s="18" t="s">
+      <c r="G161" s="18" t="s">
         <v>212</v>
-      </c>
-      <c r="G161" s="18" t="s">
-        <v>213</v>
       </c>
       <c r="H161" s="18"/>
     </row>
@@ -5468,16 +5462,16 @@
         <v>20</v>
       </c>
       <c r="D162" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="E162" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="E162" s="21" t="s">
+      <c r="F162" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="F162" s="21" t="s">
+      <c r="G162" s="21" t="s">
         <v>216</v>
-      </c>
-      <c r="G162" s="21" t="s">
-        <v>217</v>
       </c>
       <c r="H162" s="21"/>
     </row>
@@ -5486,22 +5480,22 @@
         <v>166</v>
       </c>
       <c r="B163" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C163" s="18" t="s">
         <v>20</v>
       </c>
       <c r="D163" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="E163" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="E163" s="18" t="s">
+      <c r="F163" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="F163" s="18" t="s">
+      <c r="G163" s="18" t="s">
         <v>221</v>
-      </c>
-      <c r="G163" s="18" t="s">
-        <v>222</v>
       </c>
       <c r="H163" s="18"/>
     </row>
@@ -5520,10 +5514,10 @@
       </c>
       <c r="E164" s="21"/>
       <c r="F164" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="G164" s="21" t="s">
         <v>224</v>
-      </c>
-      <c r="G164" s="21" t="s">
-        <v>225</v>
       </c>
       <c r="H164" s="21"/>
     </row>
@@ -5552,7 +5546,7 @@
         <v>169</v>
       </c>
       <c r="B166" s="21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C166" s="21"/>
       <c r="D166" s="21"/>
@@ -5592,14 +5586,14 @@
         <v>15</v>
       </c>
       <c r="D168" s="22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E168" s="21"/>
       <c r="F168" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="G168" s="21" t="s">
         <v>240</v>
-      </c>
-      <c r="G168" s="21" t="s">
-        <v>241</v>
       </c>
       <c r="H168" s="21"/>
     </row>
@@ -5676,7 +5670,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5684,20 +5678,20 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C3" t="s">
         <v>244</v>
-      </c>
-      <c r="C3" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -5708,20 +5702,20 @@
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C6" t="s">
         <v>248</v>
-      </c>
-      <c r="C6" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -5729,47 +5723,47 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>250</v>
+      </c>
+      <c r="C8" t="s">
         <v>251</v>
-      </c>
-      <c r="C8" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>252</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C10" t="s">
         <v>256</v>
-      </c>
-      <c r="C10" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>257</v>
+      </c>
+      <c r="C11" t="s">
         <v>258</v>
-      </c>
-      <c r="C11" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="3:3">
@@ -5779,12 +5773,12 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -5794,55 +5788,55 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>272</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -5852,152 +5846,152 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="59" spans="3:3">
@@ -6007,209 +6001,209 @@
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="98" spans="3:3">
       <c r="C98" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="99" spans="3:3">
@@ -6219,12 +6213,12 @@
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="102" spans="3:3">
